--- a/reports/Planning-Template.xlsx
+++ b/reports/Planning-Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696E0D6F-B0BA-4540-B956-3BCC1CB6A4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E38E1EB-A20A-4827-8414-E978EE420200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{683E09B8-1D94-4905-B116-9D998A46AAA3}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="133">
   <si>
     <t>Copyright</t>
   </si>
@@ -383,6 +383,81 @@
   </si>
   <si>
     <t>Student 5</t>
+  </si>
+  <si>
+    <t>Realización del requisito S1/2</t>
+  </si>
+  <si>
+    <t>Realización del requisito S2/2</t>
+  </si>
+  <si>
+    <t>Realización del requisito S3/2</t>
+  </si>
+  <si>
+    <t>Realización del requisito S4/2</t>
+  </si>
+  <si>
+    <t>Realización del requisito S5/2</t>
+  </si>
+  <si>
+    <t>Realización del requisito S1/3</t>
+  </si>
+  <si>
+    <t>Realización del requisito S2/3</t>
+  </si>
+  <si>
+    <t>Realización del requisito S3/3</t>
+  </si>
+  <si>
+    <t>Realización del requisito S4/3</t>
+  </si>
+  <si>
+    <t>Realización del requisito S5/3</t>
+  </si>
+  <si>
+    <t>Realización del requisito S1/4</t>
+  </si>
+  <si>
+    <t>Realización del requisito S2/4</t>
+  </si>
+  <si>
+    <t>Realización del requisito S3/4</t>
+  </si>
+  <si>
+    <t>Realización del requisito S4/4</t>
+  </si>
+  <si>
+    <t>Realización del requisito S5/4</t>
+  </si>
+  <si>
+    <t>Realización del requisito S1/5</t>
+  </si>
+  <si>
+    <t>Realización del requisito S2/5</t>
+  </si>
+  <si>
+    <t>Realización del requisito S3/5</t>
+  </si>
+  <si>
+    <t>Realización del requisito S4/5</t>
+  </si>
+  <si>
+    <t>Realización del requisito S5/5</t>
+  </si>
+  <si>
+    <t>Realización del requisito S1/6</t>
+  </si>
+  <si>
+    <t>Realización del requisito S2/6</t>
+  </si>
+  <si>
+    <t>Realización del requisito S3/6</t>
+  </si>
+  <si>
+    <t>Realización del requisito S4/6</t>
+  </si>
+  <si>
+    <t>Realización del requisito S5/6</t>
   </si>
 </sst>
 </file>
@@ -392,7 +467,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$EUR]\ #,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,14 +500,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -657,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -767,7 +834,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -786,7 +852,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1428,118 +1494,118 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1560,17 +1626,17 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
@@ -1584,39 +1650,39 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
@@ -1644,29 +1710,29 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="49"/>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="50"/>
@@ -1683,16 +1749,16 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1710,9 +1776,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CF3CD5-8D08-494F-856F-AF84E30F468A}">
   <dimension ref="B2:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1722,40 +1788,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C5" s="5"/>
@@ -1774,7 +1840,7 @@
       <c r="P5" s="5"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="53" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -1782,7 +1848,7 @@
       </c>
       <c r="E6" s="35">
         <f>SUM(N11:N110)</f>
-        <v>666.25</v>
+        <v>3666.25</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1797,13 +1863,13 @@
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C7" s="54"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="36">
         <f>SUM(O11:O110)</f>
-        <v>398.75</v>
+        <v>361.25</v>
       </c>
       <c r="J7" s="37"/>
     </row>
@@ -1815,19 +1881,19 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="55"/>
+      <c r="J9" s="54"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="55" t="s">
+      <c r="L9" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55" t="s">
+      <c r="M9" s="54"/>
+      <c r="N9" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="55"/>
+      <c r="O9" s="54"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2339,29 +2405,23 @@
         <v>49</v>
       </c>
       <c r="H20" s="43"/>
-      <c r="I20" s="46">
-        <v>46068.729166666664</v>
-      </c>
-      <c r="J20" s="46">
-        <v>46068.791666666664</v>
-      </c>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
       <c r="K20" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Completed</v>
+        <v/>
       </c>
       <c r="L20" s="47">
         <v>2</v>
       </c>
-      <c r="M20" s="47">
-        <v>1.5</v>
-      </c>
+      <c r="M20" s="47"/>
       <c r="N20" s="45">
         <f>IF(ISBLANK(L20), "", L20*VLOOKUP($F20,Internal!$B$26:$C$32,2,FALSE))</f>
         <v>50</v>
       </c>
-      <c r="O20" s="45">
+      <c r="O20" s="45" t="str">
         <f>IF(ISBLANK(M20), "", M20*VLOOKUP($F20,Internal!$B$26:$C$32,2,FALSE))</f>
-        <v>37.5</v>
+        <v/>
       </c>
       <c r="P20" s="44" t="s">
         <v>57</v>
@@ -2578,7 +2638,7 @@
         <f>IF(ISBLANK(M25), "", M25*VLOOKUP($F25,Internal!$B$26:$C$32,2,FALSE))</f>
         <v/>
       </c>
-      <c r="P25" s="60" t="s">
+      <c r="P25" s="44" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2588,30 +2648,42 @@
       </c>
       <c r="C26" s="42" t="str">
         <f>IF(ISBLANK(D26), "", _xlfn.CONCAT("T", TEXT(B26, "0000"), "/", VLOOKUP(D26, Internal!$B$35:C$39, 2, FALSE), IF(OR(D26="QA", D26="Revision"), _xlfn.CONCAT("/", H26), "")))</f>
-        <v/>
-      </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="44"/>
+        <v>T0016/D</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="H26" s="43"/>
       <c r="I26" s="46"/>
       <c r="J26" s="46"/>
       <c r="K26" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="L26" s="47"/>
+        <f t="shared" ref="K26:K30" ca="1" si="2">IF(OR(I26="",J26=""),"",IF(AND(J26&lt;&gt;"",I26&gt;=NOW()),"Planned",IF(AND(J26&lt;&gt;"",J26&lt;NOW()),"Completed","Ongoing")))</f>
+        <v/>
+      </c>
+      <c r="L26" s="47">
+        <v>5</v>
+      </c>
       <c r="M26" s="47"/>
-      <c r="N26" s="45" t="str">
+      <c r="N26" s="45">
         <f>IF(ISBLANK(L26), "", L26*VLOOKUP($F26,Internal!$B$26:$C$32,2,FALSE))</f>
-        <v/>
+        <v>125</v>
       </c>
       <c r="O26" s="45" t="str">
         <f>IF(ISBLANK(M26), "", M26*VLOOKUP($F26,Internal!$B$26:$C$32,2,FALSE))</f>
         <v/>
       </c>
-      <c r="P26" s="53"/>
+      <c r="P26" s="44" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="27" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="41">
@@ -2619,30 +2691,42 @@
       </c>
       <c r="C27" s="42" t="str">
         <f>IF(ISBLANK(D27), "", _xlfn.CONCAT("T", TEXT(B27, "0000"), "/", VLOOKUP(D27, Internal!$B$35:C$39, 2, FALSE), IF(OR(D27="QA", D27="Revision"), _xlfn.CONCAT("/", H27), "")))</f>
-        <v/>
-      </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="44"/>
+        <v>T0017/D</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="H27" s="43"/>
       <c r="I27" s="46"/>
       <c r="J27" s="46"/>
       <c r="K27" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="L27" s="47"/>
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="L27" s="59">
+        <v>5</v>
+      </c>
       <c r="M27" s="47"/>
-      <c r="N27" s="45" t="str">
+      <c r="N27" s="45">
         <f>IF(ISBLANK(L27), "", L27*VLOOKUP($F27,Internal!$B$26:$C$32,2,FALSE))</f>
-        <v/>
+        <v>125</v>
       </c>
       <c r="O27" s="45" t="str">
         <f>IF(ISBLANK(M27), "", M27*VLOOKUP($F27,Internal!$B$26:$C$32,2,FALSE))</f>
         <v/>
       </c>
-      <c r="P27" s="44"/>
+      <c r="P27" s="44" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="28" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="41">
@@ -2650,30 +2734,42 @@
       </c>
       <c r="C28" s="42" t="str">
         <f>IF(ISBLANK(D28), "", _xlfn.CONCAT("T", TEXT(B28, "0000"), "/", VLOOKUP(D28, Internal!$B$35:C$39, 2, FALSE), IF(OR(D28="QA", D28="Revision"), _xlfn.CONCAT("/", H28), "")))</f>
-        <v/>
-      </c>
-      <c r="D28" s="44"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="53"/>
+        <v>T0018/D</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="H28" s="43"/>
       <c r="I28" s="46"/>
       <c r="J28" s="46"/>
       <c r="K28" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="L28" s="47"/>
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="L28" s="47">
+        <v>5</v>
+      </c>
       <c r="M28" s="47"/>
-      <c r="N28" s="45" t="str">
+      <c r="N28" s="45">
         <f>IF(ISBLANK(L28), "", L28*VLOOKUP($F28,Internal!$B$26:$C$32,2,FALSE))</f>
-        <v/>
+        <v>125</v>
       </c>
       <c r="O28" s="45" t="str">
         <f>IF(ISBLANK(M28), "", M28*VLOOKUP($F28,Internal!$B$26:$C$32,2,FALSE))</f>
         <v/>
       </c>
-      <c r="P28" s="44"/>
+      <c r="P28" s="44" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="29" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="41">
@@ -2681,30 +2777,42 @@
       </c>
       <c r="C29" s="42" t="str">
         <f>IF(ISBLANK(D29), "", _xlfn.CONCAT("T", TEXT(B29, "0000"), "/", VLOOKUP(D29, Internal!$B$35:C$39, 2, FALSE), IF(OR(D29="QA", D29="Revision"), _xlfn.CONCAT("/", H29), "")))</f>
-        <v/>
-      </c>
-      <c r="D29" s="44"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="44"/>
+        <v>T0019/D</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="H29" s="43"/>
       <c r="I29" s="46"/>
       <c r="J29" s="46"/>
       <c r="K29" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="L29" s="47"/>
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="L29" s="47">
+        <v>5</v>
+      </c>
       <c r="M29" s="47"/>
-      <c r="N29" s="45" t="str">
+      <c r="N29" s="45">
         <f>IF(ISBLANK(L29), "", L29*VLOOKUP($F29,Internal!$B$26:$C$32,2,FALSE))</f>
-        <v/>
+        <v>125</v>
       </c>
       <c r="O29" s="45" t="str">
         <f>IF(ISBLANK(M29), "", M29*VLOOKUP($F29,Internal!$B$26:$C$32,2,FALSE))</f>
         <v/>
       </c>
-      <c r="P29" s="44"/>
+      <c r="P29" s="44" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="30" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="41">
@@ -2712,30 +2820,42 @@
       </c>
       <c r="C30" s="42" t="str">
         <f>IF(ISBLANK(D30), "", _xlfn.CONCAT("T", TEXT(B30, "0000"), "/", VLOOKUP(D30, Internal!$B$35:C$39, 2, FALSE), IF(OR(D30="QA", D30="Revision"), _xlfn.CONCAT("/", H30), "")))</f>
-        <v/>
-      </c>
-      <c r="D30" s="44"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="44"/>
+        <v>T0020/D</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="H30" s="43"/>
       <c r="I30" s="46"/>
       <c r="J30" s="46"/>
       <c r="K30" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="L30" s="47"/>
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="L30" s="47">
+        <v>5</v>
+      </c>
       <c r="M30" s="47"/>
-      <c r="N30" s="45" t="str">
+      <c r="N30" s="45">
         <f>IF(ISBLANK(L30), "", L30*VLOOKUP($F30,Internal!$B$26:$C$32,2,FALSE))</f>
-        <v/>
+        <v>125</v>
       </c>
       <c r="O30" s="45" t="str">
         <f>IF(ISBLANK(M30), "", M30*VLOOKUP($F30,Internal!$B$26:$C$32,2,FALSE))</f>
         <v/>
       </c>
-      <c r="P30" s="44"/>
+      <c r="P30" s="44" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="31" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="41">
@@ -2743,30 +2863,42 @@
       </c>
       <c r="C31" s="42" t="str">
         <f>IF(ISBLANK(D31), "", _xlfn.CONCAT("T", TEXT(B31, "0000"), "/", VLOOKUP(D31, Internal!$B$35:C$39, 2, FALSE), IF(OR(D31="QA", D31="Revision"), _xlfn.CONCAT("/", H31), "")))</f>
-        <v/>
-      </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="44"/>
+        <v>T0021/D</v>
+      </c>
+      <c r="D31" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="H31" s="43"/>
       <c r="I31" s="46"/>
       <c r="J31" s="46"/>
       <c r="K31" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="L31" s="47"/>
+        <f t="shared" ref="K31:K35" ca="1" si="3">IF(OR(I31="",J31=""),"",IF(AND(J31&lt;&gt;"",I31&gt;=NOW()),"Planned",IF(AND(J31&lt;&gt;"",J31&lt;NOW()),"Completed","Ongoing")))</f>
+        <v/>
+      </c>
+      <c r="L31" s="47">
+        <v>8</v>
+      </c>
       <c r="M31" s="47"/>
-      <c r="N31" s="45" t="str">
+      <c r="N31" s="45">
         <f>IF(ISBLANK(L31), "", L31*VLOOKUP($F31,Internal!$B$26:$C$32,2,FALSE))</f>
-        <v/>
+        <v>200</v>
       </c>
       <c r="O31" s="45" t="str">
         <f>IF(ISBLANK(M31), "", M31*VLOOKUP($F31,Internal!$B$26:$C$32,2,FALSE))</f>
         <v/>
       </c>
-      <c r="P31" s="44"/>
+      <c r="P31" s="44" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="32" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="41">
@@ -2774,30 +2906,42 @@
       </c>
       <c r="C32" s="42" t="str">
         <f>IF(ISBLANK(D32), "", _xlfn.CONCAT("T", TEXT(B32, "0000"), "/", VLOOKUP(D32, Internal!$B$35:C$39, 2, FALSE), IF(OR(D32="QA", D32="Revision"), _xlfn.CONCAT("/", H32), "")))</f>
-        <v/>
-      </c>
-      <c r="D32" s="44"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="44"/>
+        <v>T0022/D</v>
+      </c>
+      <c r="D32" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="H32" s="43"/>
       <c r="I32" s="46"/>
       <c r="J32" s="46"/>
       <c r="K32" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="L32" s="47"/>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="L32" s="59">
+        <v>8</v>
+      </c>
       <c r="M32" s="47"/>
-      <c r="N32" s="45" t="str">
+      <c r="N32" s="45">
         <f>IF(ISBLANK(L32), "", L32*VLOOKUP($F32,Internal!$B$26:$C$32,2,FALSE))</f>
-        <v/>
+        <v>200</v>
       </c>
       <c r="O32" s="45" t="str">
         <f>IF(ISBLANK(M32), "", M32*VLOOKUP($F32,Internal!$B$26:$C$32,2,FALSE))</f>
         <v/>
       </c>
-      <c r="P32" s="44"/>
+      <c r="P32" s="44" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="33" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="41">
@@ -2805,30 +2949,42 @@
       </c>
       <c r="C33" s="42" t="str">
         <f>IF(ISBLANK(D33), "", _xlfn.CONCAT("T", TEXT(B33, "0000"), "/", VLOOKUP(D33, Internal!$B$35:C$39, 2, FALSE), IF(OR(D33="QA", D33="Revision"), _xlfn.CONCAT("/", H33), "")))</f>
-        <v/>
-      </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="44"/>
+        <v>T0023/D</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="H33" s="43"/>
       <c r="I33" s="46"/>
       <c r="J33" s="46"/>
       <c r="K33" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="L33" s="47"/>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="L33" s="47">
+        <v>8</v>
+      </c>
       <c r="M33" s="47"/>
-      <c r="N33" s="45" t="str">
+      <c r="N33" s="45">
         <f>IF(ISBLANK(L33), "", L33*VLOOKUP($F33,Internal!$B$26:$C$32,2,FALSE))</f>
-        <v/>
+        <v>200</v>
       </c>
       <c r="O33" s="45" t="str">
         <f>IF(ISBLANK(M33), "", M33*VLOOKUP($F33,Internal!$B$26:$C$32,2,FALSE))</f>
         <v/>
       </c>
-      <c r="P33" s="44"/>
+      <c r="P33" s="44" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="34" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="41">
@@ -2836,30 +2992,42 @@
       </c>
       <c r="C34" s="42" t="str">
         <f>IF(ISBLANK(D34), "", _xlfn.CONCAT("T", TEXT(B34, "0000"), "/", VLOOKUP(D34, Internal!$B$35:C$39, 2, FALSE), IF(OR(D34="QA", D34="Revision"), _xlfn.CONCAT("/", H34), "")))</f>
-        <v/>
-      </c>
-      <c r="D34" s="44"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="44"/>
+        <v>T0024/D</v>
+      </c>
+      <c r="D34" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="H34" s="43"/>
       <c r="I34" s="46"/>
       <c r="J34" s="46"/>
       <c r="K34" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="L34" s="47"/>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="L34" s="47">
+        <v>8</v>
+      </c>
       <c r="M34" s="47"/>
-      <c r="N34" s="45" t="str">
+      <c r="N34" s="45">
         <f>IF(ISBLANK(L34), "", L34*VLOOKUP($F34,Internal!$B$26:$C$32,2,FALSE))</f>
-        <v/>
+        <v>200</v>
       </c>
       <c r="O34" s="45" t="str">
         <f>IF(ISBLANK(M34), "", M34*VLOOKUP($F34,Internal!$B$26:$C$32,2,FALSE))</f>
         <v/>
       </c>
-      <c r="P34" s="44"/>
+      <c r="P34" s="44" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="35" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="41">
@@ -2867,30 +3035,42 @@
       </c>
       <c r="C35" s="42" t="str">
         <f>IF(ISBLANK(D35), "", _xlfn.CONCAT("T", TEXT(B35, "0000"), "/", VLOOKUP(D35, Internal!$B$35:C$39, 2, FALSE), IF(OR(D35="QA", D35="Revision"), _xlfn.CONCAT("/", H35), "")))</f>
-        <v/>
-      </c>
-      <c r="D35" s="44"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="44"/>
+        <v>T0025/D</v>
+      </c>
+      <c r="D35" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="H35" s="43"/>
       <c r="I35" s="46"/>
       <c r="J35" s="46"/>
       <c r="K35" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="L35" s="47"/>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="L35" s="47">
+        <v>8</v>
+      </c>
       <c r="M35" s="47"/>
-      <c r="N35" s="45" t="str">
+      <c r="N35" s="45">
         <f>IF(ISBLANK(L35), "", L35*VLOOKUP($F35,Internal!$B$26:$C$32,2,FALSE))</f>
-        <v/>
+        <v>200</v>
       </c>
       <c r="O35" s="45" t="str">
         <f>IF(ISBLANK(M35), "", M35*VLOOKUP($F35,Internal!$B$26:$C$32,2,FALSE))</f>
         <v/>
       </c>
-      <c r="P35" s="44"/>
+      <c r="P35" s="44" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="36" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="41">
@@ -2898,30 +3078,42 @@
       </c>
       <c r="C36" s="42" t="str">
         <f>IF(ISBLANK(D36), "", _xlfn.CONCAT("T", TEXT(B36, "0000"), "/", VLOOKUP(D36, Internal!$B$35:C$39, 2, FALSE), IF(OR(D36="QA", D36="Revision"), _xlfn.CONCAT("/", H36), "")))</f>
-        <v/>
-      </c>
-      <c r="D36" s="44"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="44"/>
+        <v>T0026/D</v>
+      </c>
+      <c r="D36" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="F36" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="H36" s="43"/>
       <c r="I36" s="46"/>
       <c r="J36" s="46"/>
       <c r="K36" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="L36" s="47"/>
+        <f t="shared" ref="K36:K40" ca="1" si="4">IF(OR(I36="",J36=""),"",IF(AND(J36&lt;&gt;"",I36&gt;=NOW()),"Planned",IF(AND(J36&lt;&gt;"",J36&lt;NOW()),"Completed","Ongoing")))</f>
+        <v/>
+      </c>
+      <c r="L36" s="47">
+        <v>8</v>
+      </c>
       <c r="M36" s="47"/>
-      <c r="N36" s="45" t="str">
+      <c r="N36" s="45">
         <f>IF(ISBLANK(L36), "", L36*VLOOKUP($F36,Internal!$B$26:$C$32,2,FALSE))</f>
-        <v/>
+        <v>200</v>
       </c>
       <c r="O36" s="45" t="str">
         <f>IF(ISBLANK(M36), "", M36*VLOOKUP($F36,Internal!$B$26:$C$32,2,FALSE))</f>
         <v/>
       </c>
-      <c r="P36" s="44"/>
+      <c r="P36" s="44" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="37" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="41">
@@ -2929,30 +3121,42 @@
       </c>
       <c r="C37" s="42" t="str">
         <f>IF(ISBLANK(D37), "", _xlfn.CONCAT("T", TEXT(B37, "0000"), "/", VLOOKUP(D37, Internal!$B$35:C$39, 2, FALSE), IF(OR(D37="QA", D37="Revision"), _xlfn.CONCAT("/", H37), "")))</f>
-        <v/>
-      </c>
-      <c r="D37" s="44"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="44"/>
+        <v>T0027/D</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="H37" s="43"/>
       <c r="I37" s="46"/>
       <c r="J37" s="46"/>
       <c r="K37" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="L37" s="47"/>
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="L37" s="59">
+        <v>8</v>
+      </c>
       <c r="M37" s="47"/>
-      <c r="N37" s="45" t="str">
+      <c r="N37" s="45">
         <f>IF(ISBLANK(L37), "", L37*VLOOKUP($F37,Internal!$B$26:$C$32,2,FALSE))</f>
-        <v/>
+        <v>200</v>
       </c>
       <c r="O37" s="45" t="str">
         <f>IF(ISBLANK(M37), "", M37*VLOOKUP($F37,Internal!$B$26:$C$32,2,FALSE))</f>
         <v/>
       </c>
-      <c r="P37" s="44"/>
+      <c r="P37" s="44" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="38" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="41">
@@ -2960,30 +3164,42 @@
       </c>
       <c r="C38" s="42" t="str">
         <f>IF(ISBLANK(D38), "", _xlfn.CONCAT("T", TEXT(B38, "0000"), "/", VLOOKUP(D38, Internal!$B$35:C$39, 2, FALSE), IF(OR(D38="QA", D38="Revision"), _xlfn.CONCAT("/", H38), "")))</f>
-        <v/>
-      </c>
-      <c r="D38" s="44"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="44"/>
+        <v>T0028/D</v>
+      </c>
+      <c r="D38" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="H38" s="43"/>
       <c r="I38" s="46"/>
       <c r="J38" s="46"/>
       <c r="K38" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="L38" s="47"/>
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="L38" s="47">
+        <v>8</v>
+      </c>
       <c r="M38" s="47"/>
-      <c r="N38" s="45" t="str">
+      <c r="N38" s="45">
         <f>IF(ISBLANK(L38), "", L38*VLOOKUP($F38,Internal!$B$26:$C$32,2,FALSE))</f>
-        <v/>
+        <v>200</v>
       </c>
       <c r="O38" s="45" t="str">
         <f>IF(ISBLANK(M38), "", M38*VLOOKUP($F38,Internal!$B$26:$C$32,2,FALSE))</f>
         <v/>
       </c>
-      <c r="P38" s="44"/>
+      <c r="P38" s="44" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="39" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="41">
@@ -2991,30 +3207,42 @@
       </c>
       <c r="C39" s="42" t="str">
         <f>IF(ISBLANK(D39), "", _xlfn.CONCAT("T", TEXT(B39, "0000"), "/", VLOOKUP(D39, Internal!$B$35:C$39, 2, FALSE), IF(OR(D39="QA", D39="Revision"), _xlfn.CONCAT("/", H39), "")))</f>
-        <v/>
-      </c>
-      <c r="D39" s="44"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="44"/>
+        <v>T0029/D</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="H39" s="43"/>
       <c r="I39" s="46"/>
       <c r="J39" s="46"/>
       <c r="K39" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="L39" s="47"/>
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="L39" s="47">
+        <v>8</v>
+      </c>
       <c r="M39" s="47"/>
-      <c r="N39" s="45" t="str">
+      <c r="N39" s="45">
         <f>IF(ISBLANK(L39), "", L39*VLOOKUP($F39,Internal!$B$26:$C$32,2,FALSE))</f>
-        <v/>
+        <v>200</v>
       </c>
       <c r="O39" s="45" t="str">
         <f>IF(ISBLANK(M39), "", M39*VLOOKUP($F39,Internal!$B$26:$C$32,2,FALSE))</f>
         <v/>
       </c>
-      <c r="P39" s="44"/>
+      <c r="P39" s="44" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="40" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="41">
@@ -3022,30 +3250,42 @@
       </c>
       <c r="C40" s="42" t="str">
         <f>IF(ISBLANK(D40), "", _xlfn.CONCAT("T", TEXT(B40, "0000"), "/", VLOOKUP(D40, Internal!$B$35:C$39, 2, FALSE), IF(OR(D40="QA", D40="Revision"), _xlfn.CONCAT("/", H40), "")))</f>
-        <v/>
-      </c>
-      <c r="D40" s="44"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="44"/>
+        <v>T0030/D</v>
+      </c>
+      <c r="D40" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="H40" s="43"/>
       <c r="I40" s="46"/>
       <c r="J40" s="46"/>
       <c r="K40" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="L40" s="47"/>
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="L40" s="47">
+        <v>8</v>
+      </c>
       <c r="M40" s="47"/>
-      <c r="N40" s="45" t="str">
+      <c r="N40" s="45">
         <f>IF(ISBLANK(L40), "", L40*VLOOKUP($F40,Internal!$B$26:$C$32,2,FALSE))</f>
-        <v/>
+        <v>200</v>
       </c>
       <c r="O40" s="45" t="str">
         <f>IF(ISBLANK(M40), "", M40*VLOOKUP($F40,Internal!$B$26:$C$32,2,FALSE))</f>
         <v/>
       </c>
-      <c r="P40" s="44"/>
+      <c r="P40" s="44" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="41" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="41">
@@ -3053,30 +3293,42 @@
       </c>
       <c r="C41" s="42" t="str">
         <f>IF(ISBLANK(D41), "", _xlfn.CONCAT("T", TEXT(B41, "0000"), "/", VLOOKUP(D41, Internal!$B$35:C$39, 2, FALSE), IF(OR(D41="QA", D41="Revision"), _xlfn.CONCAT("/", H41), "")))</f>
-        <v/>
-      </c>
-      <c r="D41" s="44"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="44"/>
+        <v>T0031/D</v>
+      </c>
+      <c r="D41" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G41" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="H41" s="43"/>
       <c r="I41" s="46"/>
       <c r="J41" s="46"/>
       <c r="K41" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="L41" s="47"/>
+        <f t="shared" ref="K41:K45" ca="1" si="5">IF(OR(I41="",J41=""),"",IF(AND(J41&lt;&gt;"",I41&gt;=NOW()),"Planned",IF(AND(J41&lt;&gt;"",J41&lt;NOW()),"Completed","Ongoing")))</f>
+        <v/>
+      </c>
+      <c r="L41" s="47">
+        <v>2</v>
+      </c>
       <c r="M41" s="47"/>
-      <c r="N41" s="45" t="str">
+      <c r="N41" s="45">
         <f>IF(ISBLANK(L41), "", L41*VLOOKUP($F41,Internal!$B$26:$C$32,2,FALSE))</f>
-        <v/>
+        <v>50</v>
       </c>
       <c r="O41" s="45" t="str">
         <f>IF(ISBLANK(M41), "", M41*VLOOKUP($F41,Internal!$B$26:$C$32,2,FALSE))</f>
         <v/>
       </c>
-      <c r="P41" s="44"/>
+      <c r="P41" s="44" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="42" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="41">
@@ -3084,30 +3336,42 @@
       </c>
       <c r="C42" s="42" t="str">
         <f>IF(ISBLANK(D42), "", _xlfn.CONCAT("T", TEXT(B42, "0000"), "/", VLOOKUP(D42, Internal!$B$35:C$39, 2, FALSE), IF(OR(D42="QA", D42="Revision"), _xlfn.CONCAT("/", H42), "")))</f>
-        <v/>
-      </c>
-      <c r="D42" s="44"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="44"/>
+        <v>T0032/D</v>
+      </c>
+      <c r="D42" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G42" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="H42" s="43"/>
       <c r="I42" s="46"/>
       <c r="J42" s="46"/>
       <c r="K42" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="L42" s="47"/>
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="L42" s="59">
+        <v>2</v>
+      </c>
       <c r="M42" s="47"/>
-      <c r="N42" s="45" t="str">
+      <c r="N42" s="45">
         <f>IF(ISBLANK(L42), "", L42*VLOOKUP($F42,Internal!$B$26:$C$32,2,FALSE))</f>
-        <v/>
+        <v>50</v>
       </c>
       <c r="O42" s="45" t="str">
         <f>IF(ISBLANK(M42), "", M42*VLOOKUP($F42,Internal!$B$26:$C$32,2,FALSE))</f>
         <v/>
       </c>
-      <c r="P42" s="44"/>
+      <c r="P42" s="44" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="43" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="41">
@@ -3115,30 +3379,42 @@
       </c>
       <c r="C43" s="42" t="str">
         <f>IF(ISBLANK(D43), "", _xlfn.CONCAT("T", TEXT(B43, "0000"), "/", VLOOKUP(D43, Internal!$B$35:C$39, 2, FALSE), IF(OR(D43="QA", D43="Revision"), _xlfn.CONCAT("/", H43), "")))</f>
-        <v/>
-      </c>
-      <c r="D43" s="44"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="44"/>
+        <v>T0033/D</v>
+      </c>
+      <c r="D43" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G43" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="H43" s="43"/>
       <c r="I43" s="46"/>
       <c r="J43" s="46"/>
       <c r="K43" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="L43" s="47"/>
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="L43" s="47">
+        <v>2</v>
+      </c>
       <c r="M43" s="47"/>
-      <c r="N43" s="45" t="str">
+      <c r="N43" s="45">
         <f>IF(ISBLANK(L43), "", L43*VLOOKUP($F43,Internal!$B$26:$C$32,2,FALSE))</f>
-        <v/>
+        <v>50</v>
       </c>
       <c r="O43" s="45" t="str">
         <f>IF(ISBLANK(M43), "", M43*VLOOKUP($F43,Internal!$B$26:$C$32,2,FALSE))</f>
         <v/>
       </c>
-      <c r="P43" s="44"/>
+      <c r="P43" s="44" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="44" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="41">
@@ -3146,30 +3422,42 @@
       </c>
       <c r="C44" s="42" t="str">
         <f>IF(ISBLANK(D44), "", _xlfn.CONCAT("T", TEXT(B44, "0000"), "/", VLOOKUP(D44, Internal!$B$35:C$39, 2, FALSE), IF(OR(D44="QA", D44="Revision"), _xlfn.CONCAT("/", H44), "")))</f>
-        <v/>
-      </c>
-      <c r="D44" s="44"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="44"/>
+        <v>T0034/D</v>
+      </c>
+      <c r="D44" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="F44" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G44" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="H44" s="43"/>
       <c r="I44" s="46"/>
       <c r="J44" s="46"/>
       <c r="K44" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="L44" s="47"/>
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="L44" s="47">
+        <v>2</v>
+      </c>
       <c r="M44" s="47"/>
-      <c r="N44" s="45" t="str">
+      <c r="N44" s="45">
         <f>IF(ISBLANK(L44), "", L44*VLOOKUP($F44,Internal!$B$26:$C$32,2,FALSE))</f>
-        <v/>
+        <v>50</v>
       </c>
       <c r="O44" s="45" t="str">
         <f>IF(ISBLANK(M44), "", M44*VLOOKUP($F44,Internal!$B$26:$C$32,2,FALSE))</f>
         <v/>
       </c>
-      <c r="P44" s="44"/>
+      <c r="P44" s="44" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="45" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="41">
@@ -3177,30 +3465,42 @@
       </c>
       <c r="C45" s="42" t="str">
         <f>IF(ISBLANK(D45), "", _xlfn.CONCAT("T", TEXT(B45, "0000"), "/", VLOOKUP(D45, Internal!$B$35:C$39, 2, FALSE), IF(OR(D45="QA", D45="Revision"), _xlfn.CONCAT("/", H45), "")))</f>
-        <v/>
-      </c>
-      <c r="D45" s="44"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="44"/>
+        <v>T0035/D</v>
+      </c>
+      <c r="D45" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="F45" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G45" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="H45" s="43"/>
       <c r="I45" s="46"/>
       <c r="J45" s="46"/>
       <c r="K45" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="L45" s="47"/>
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="L45" s="47">
+        <v>2</v>
+      </c>
       <c r="M45" s="47"/>
-      <c r="N45" s="45" t="str">
+      <c r="N45" s="45">
         <f>IF(ISBLANK(L45), "", L45*VLOOKUP($F45,Internal!$B$26:$C$32,2,FALSE))</f>
-        <v/>
+        <v>50</v>
       </c>
       <c r="O45" s="45" t="str">
         <f>IF(ISBLANK(M45), "", M45*VLOOKUP($F45,Internal!$B$26:$C$32,2,FALSE))</f>
         <v/>
       </c>
-      <c r="P45" s="44"/>
+      <c r="P45" s="44" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="46" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="41">
@@ -3208,30 +3508,42 @@
       </c>
       <c r="C46" s="42" t="str">
         <f>IF(ISBLANK(D46), "", _xlfn.CONCAT("T", TEXT(B46, "0000"), "/", VLOOKUP(D46, Internal!$B$35:C$39, 2, FALSE), IF(OR(D46="QA", D46="Revision"), _xlfn.CONCAT("/", H46), "")))</f>
-        <v/>
-      </c>
-      <c r="D46" s="44"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="44"/>
+        <v>T0036/D</v>
+      </c>
+      <c r="D46" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="F46" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G46" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="H46" s="43"/>
       <c r="I46" s="46"/>
       <c r="J46" s="46"/>
       <c r="K46" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="L46" s="47"/>
+        <f t="shared" ref="K46:K50" ca="1" si="6">IF(OR(I46="",J46=""),"",IF(AND(J46&lt;&gt;"",I46&gt;=NOW()),"Planned",IF(AND(J46&lt;&gt;"",J46&lt;NOW()),"Completed","Ongoing")))</f>
+        <v/>
+      </c>
+      <c r="L46" s="47">
+        <v>1</v>
+      </c>
       <c r="M46" s="47"/>
-      <c r="N46" s="45" t="str">
+      <c r="N46" s="45">
         <f>IF(ISBLANK(L46), "", L46*VLOOKUP($F46,Internal!$B$26:$C$32,2,FALSE))</f>
-        <v/>
+        <v>25</v>
       </c>
       <c r="O46" s="45" t="str">
         <f>IF(ISBLANK(M46), "", M46*VLOOKUP($F46,Internal!$B$26:$C$32,2,FALSE))</f>
         <v/>
       </c>
-      <c r="P46" s="44"/>
+      <c r="P46" s="44" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="47" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="41">
@@ -3239,30 +3551,42 @@
       </c>
       <c r="C47" s="42" t="str">
         <f>IF(ISBLANK(D47), "", _xlfn.CONCAT("T", TEXT(B47, "0000"), "/", VLOOKUP(D47, Internal!$B$35:C$39, 2, FALSE), IF(OR(D47="QA", D47="Revision"), _xlfn.CONCAT("/", H47), "")))</f>
-        <v/>
-      </c>
-      <c r="D47" s="44"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="44"/>
+        <v>T0037/D</v>
+      </c>
+      <c r="D47" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F47" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G47" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="H47" s="43"/>
       <c r="I47" s="46"/>
       <c r="J47" s="46"/>
       <c r="K47" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="L47" s="47"/>
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="L47" s="59">
+        <v>1</v>
+      </c>
       <c r="M47" s="47"/>
-      <c r="N47" s="45" t="str">
+      <c r="N47" s="45">
         <f>IF(ISBLANK(L47), "", L47*VLOOKUP($F47,Internal!$B$26:$C$32,2,FALSE))</f>
-        <v/>
+        <v>25</v>
       </c>
       <c r="O47" s="45" t="str">
         <f>IF(ISBLANK(M47), "", M47*VLOOKUP($F47,Internal!$B$26:$C$32,2,FALSE))</f>
         <v/>
       </c>
-      <c r="P47" s="44"/>
+      <c r="P47" s="44" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="48" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="41">
@@ -3270,30 +3594,42 @@
       </c>
       <c r="C48" s="42" t="str">
         <f>IF(ISBLANK(D48), "", _xlfn.CONCAT("T", TEXT(B48, "0000"), "/", VLOOKUP(D48, Internal!$B$35:C$39, 2, FALSE), IF(OR(D48="QA", D48="Revision"), _xlfn.CONCAT("/", H48), "")))</f>
-        <v/>
-      </c>
-      <c r="D48" s="44"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="44"/>
+        <v>T0038/D</v>
+      </c>
+      <c r="D48" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G48" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="H48" s="43"/>
       <c r="I48" s="46"/>
       <c r="J48" s="46"/>
       <c r="K48" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="L48" s="47"/>
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="L48" s="47">
+        <v>1</v>
+      </c>
       <c r="M48" s="47"/>
-      <c r="N48" s="45" t="str">
+      <c r="N48" s="45">
         <f>IF(ISBLANK(L48), "", L48*VLOOKUP($F48,Internal!$B$26:$C$32,2,FALSE))</f>
-        <v/>
+        <v>25</v>
       </c>
       <c r="O48" s="45" t="str">
         <f>IF(ISBLANK(M48), "", M48*VLOOKUP($F48,Internal!$B$26:$C$32,2,FALSE))</f>
         <v/>
       </c>
-      <c r="P48" s="44"/>
+      <c r="P48" s="44" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="49" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="41">
@@ -3301,30 +3637,42 @@
       </c>
       <c r="C49" s="42" t="str">
         <f>IF(ISBLANK(D49), "", _xlfn.CONCAT("T", TEXT(B49, "0000"), "/", VLOOKUP(D49, Internal!$B$35:C$39, 2, FALSE), IF(OR(D49="QA", D49="Revision"), _xlfn.CONCAT("/", H49), "")))</f>
-        <v/>
-      </c>
-      <c r="D49" s="44"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="44"/>
+        <v>T0039/D</v>
+      </c>
+      <c r="D49" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="F49" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G49" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="H49" s="43"/>
       <c r="I49" s="46"/>
       <c r="J49" s="46"/>
       <c r="K49" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="L49" s="47"/>
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="L49" s="47">
+        <v>1</v>
+      </c>
       <c r="M49" s="47"/>
-      <c r="N49" s="45" t="str">
+      <c r="N49" s="45">
         <f>IF(ISBLANK(L49), "", L49*VLOOKUP($F49,Internal!$B$26:$C$32,2,FALSE))</f>
-        <v/>
+        <v>25</v>
       </c>
       <c r="O49" s="45" t="str">
         <f>IF(ISBLANK(M49), "", M49*VLOOKUP($F49,Internal!$B$26:$C$32,2,FALSE))</f>
         <v/>
       </c>
-      <c r="P49" s="44"/>
+      <c r="P49" s="44" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="50" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="41">
@@ -3332,30 +3680,42 @@
       </c>
       <c r="C50" s="42" t="str">
         <f>IF(ISBLANK(D50), "", _xlfn.CONCAT("T", TEXT(B50, "0000"), "/", VLOOKUP(D50, Internal!$B$35:C$39, 2, FALSE), IF(OR(D50="QA", D50="Revision"), _xlfn.CONCAT("/", H50), "")))</f>
-        <v/>
-      </c>
-      <c r="D50" s="44"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="44"/>
+        <v>T0040/D</v>
+      </c>
+      <c r="D50" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G50" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="H50" s="43"/>
       <c r="I50" s="46"/>
       <c r="J50" s="46"/>
       <c r="K50" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="L50" s="47"/>
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="L50" s="47">
+        <v>1</v>
+      </c>
       <c r="M50" s="47"/>
-      <c r="N50" s="45" t="str">
+      <c r="N50" s="45">
         <f>IF(ISBLANK(L50), "", L50*VLOOKUP($F50,Internal!$B$26:$C$32,2,FALSE))</f>
-        <v/>
+        <v>25</v>
       </c>
       <c r="O50" s="45" t="str">
         <f>IF(ISBLANK(M50), "", M50*VLOOKUP($F50,Internal!$B$26:$C$32,2,FALSE))</f>
         <v/>
       </c>
-      <c r="P50" s="44"/>
+      <c r="P50" s="44" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="51" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="41">
@@ -4148,7 +4508,7 @@
       <c r="I76" s="46"/>
       <c r="J76" s="46"/>
       <c r="K76" s="45" t="str">
-        <f t="shared" ref="K76:K110" ca="1" si="2">IF(OR(I76="",J76=""),"",IF(AND(J76&lt;&gt;"",I76&gt;=NOW()),"Planned",IF(AND(J76&lt;&gt;"",J76&lt;NOW()),"Completed","Ongoing")))</f>
+        <f t="shared" ref="K76:K110" ca="1" si="7">IF(OR(I76="",J76=""),"",IF(AND(J76&lt;&gt;"",I76&gt;=NOW()),"Planned",IF(AND(J76&lt;&gt;"",J76&lt;NOW()),"Completed","Ongoing")))</f>
         <v/>
       </c>
       <c r="L76" s="47"/>
@@ -4179,7 +4539,7 @@
       <c r="I77" s="46"/>
       <c r="J77" s="46"/>
       <c r="K77" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="L77" s="47"/>
@@ -4210,7 +4570,7 @@
       <c r="I78" s="46"/>
       <c r="J78" s="46"/>
       <c r="K78" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="L78" s="47"/>
@@ -4241,7 +4601,7 @@
       <c r="I79" s="46"/>
       <c r="J79" s="46"/>
       <c r="K79" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="L79" s="47"/>
@@ -4272,7 +4632,7 @@
       <c r="I80" s="46"/>
       <c r="J80" s="46"/>
       <c r="K80" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="L80" s="47"/>
@@ -4303,7 +4663,7 @@
       <c r="I81" s="46"/>
       <c r="J81" s="46"/>
       <c r="K81" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="L81" s="47"/>
@@ -4334,7 +4694,7 @@
       <c r="I82" s="46"/>
       <c r="J82" s="46"/>
       <c r="K82" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="L82" s="47"/>
@@ -4365,7 +4725,7 @@
       <c r="I83" s="46"/>
       <c r="J83" s="46"/>
       <c r="K83" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="L83" s="47"/>
@@ -4396,7 +4756,7 @@
       <c r="I84" s="46"/>
       <c r="J84" s="46"/>
       <c r="K84" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="L84" s="47"/>
@@ -4427,7 +4787,7 @@
       <c r="I85" s="46"/>
       <c r="J85" s="46"/>
       <c r="K85" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="L85" s="47"/>
@@ -4458,7 +4818,7 @@
       <c r="I86" s="46"/>
       <c r="J86" s="46"/>
       <c r="K86" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="L86" s="47"/>
@@ -4489,7 +4849,7 @@
       <c r="I87" s="46"/>
       <c r="J87" s="46"/>
       <c r="K87" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="L87" s="47"/>
@@ -4520,7 +4880,7 @@
       <c r="I88" s="46"/>
       <c r="J88" s="46"/>
       <c r="K88" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="L88" s="47"/>
@@ -4551,7 +4911,7 @@
       <c r="I89" s="46"/>
       <c r="J89" s="46"/>
       <c r="K89" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="L89" s="47"/>
@@ -4582,7 +4942,7 @@
       <c r="I90" s="46"/>
       <c r="J90" s="46"/>
       <c r="K90" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="L90" s="47"/>
@@ -4613,7 +4973,7 @@
       <c r="I91" s="46"/>
       <c r="J91" s="46"/>
       <c r="K91" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="L91" s="47"/>
@@ -4644,7 +5004,7 @@
       <c r="I92" s="46"/>
       <c r="J92" s="46"/>
       <c r="K92" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="L92" s="47"/>
@@ -4675,7 +5035,7 @@
       <c r="I93" s="46"/>
       <c r="J93" s="46"/>
       <c r="K93" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="L93" s="47"/>
@@ -4706,7 +5066,7 @@
       <c r="I94" s="46"/>
       <c r="J94" s="46"/>
       <c r="K94" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="L94" s="47"/>
@@ -4737,7 +5097,7 @@
       <c r="I95" s="46"/>
       <c r="J95" s="46"/>
       <c r="K95" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="L95" s="47"/>
@@ -4768,7 +5128,7 @@
       <c r="I96" s="46"/>
       <c r="J96" s="46"/>
       <c r="K96" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="L96" s="47"/>
@@ -4799,7 +5159,7 @@
       <c r="I97" s="46"/>
       <c r="J97" s="46"/>
       <c r="K97" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="L97" s="47"/>
@@ -4830,7 +5190,7 @@
       <c r="I98" s="46"/>
       <c r="J98" s="46"/>
       <c r="K98" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="L98" s="47"/>
@@ -4861,7 +5221,7 @@
       <c r="I99" s="46"/>
       <c r="J99" s="46"/>
       <c r="K99" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="L99" s="47"/>
@@ -4892,7 +5252,7 @@
       <c r="I100" s="46"/>
       <c r="J100" s="46"/>
       <c r="K100" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="L100" s="47"/>
@@ -4923,7 +5283,7 @@
       <c r="I101" s="46"/>
       <c r="J101" s="46"/>
       <c r="K101" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="L101" s="47"/>
@@ -4954,7 +5314,7 @@
       <c r="I102" s="46"/>
       <c r="J102" s="46"/>
       <c r="K102" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="L102" s="47"/>
@@ -4985,7 +5345,7 @@
       <c r="I103" s="46"/>
       <c r="J103" s="46"/>
       <c r="K103" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="L103" s="47"/>
@@ -5016,7 +5376,7 @@
       <c r="I104" s="46"/>
       <c r="J104" s="46"/>
       <c r="K104" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="L104" s="47"/>
@@ -5047,7 +5407,7 @@
       <c r="I105" s="46"/>
       <c r="J105" s="46"/>
       <c r="K105" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="L105" s="47"/>
@@ -5078,7 +5438,7 @@
       <c r="I106" s="46"/>
       <c r="J106" s="46"/>
       <c r="K106" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="L106" s="47"/>
@@ -5109,7 +5469,7 @@
       <c r="I107" s="46"/>
       <c r="J107" s="46"/>
       <c r="K107" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="L107" s="47"/>
@@ -5140,7 +5500,7 @@
       <c r="I108" s="46"/>
       <c r="J108" s="46"/>
       <c r="K108" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="L108" s="47"/>
@@ -5171,7 +5531,7 @@
       <c r="I109" s="46"/>
       <c r="J109" s="46"/>
       <c r="K109" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="L109" s="47"/>
@@ -5202,7 +5562,7 @@
       <c r="I110" s="46"/>
       <c r="J110" s="46"/>
       <c r="K110" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="L110" s="47"/>
@@ -5238,13 +5598,9 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="9">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Expected workload" prompt="Enter the expected workload in hours or fractions." sqref="L11:L110" xr:uid="{AADDA758-A288-4920-A868-A656B94EE475}">
-      <formula1>0</formula1>
-      <formula2>1024</formula2>
-    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Description" prompt="Provide a succint description of the task.  If not possible, the provide a link to a document where is is described." sqref="P10" xr:uid="{D0BF2996-BBAB-402C-8777-D22DB1423D76}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Actual workload" prompt="Enter the actual workload in hours or fractions._x000a_" sqref="M11:M110" xr:uid="{FFAE3670-28C0-4D44-81DE-0074EF40B001}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Description" prompt="If actually necessary, then write a succint description and/or include a link to a document that provides further information." sqref="P11:P110 K11:K110" xr:uid="{4DDB20BC-C9D1-4AB5-9B81-3F9F25727EAD}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Description" prompt="If actually necessary, then write a succint description and/or include a link to a document that provides further information." sqref="K11:K110 P11:P110" xr:uid="{4DDB20BC-C9D1-4AB5-9B81-3F9F25727EAD}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Costs" prompt="The costs are updated automatically.  Don't modify them manually" sqref="N11:O110" xr:uid="{3D1A9EDC-88F9-4796-ACC0-9C5DD1125EFE}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ID" prompt="The IDs are updated automatically.  Don't modify them manually" sqref="C11:C110" xr:uid="{6C5AA884-EA5C-464F-AE09-58D1C86343FC}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ORDER" prompt="Order numbers are internal data.  Do not change them._x000a_" sqref="B11:B110" xr:uid="{79B4C829-58F8-4180-8480-F4A0E1F5F1C5}"/>
@@ -5253,6 +5609,10 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Parent" prompt="Select the parent task if necessary.  Usually, only &quot;Quality Assurance&quot; and &quot;Revision&quot; tasks have parents." sqref="H11:H110" xr:uid="{D360DC77-273A-412B-AEBB-6D07121D9EA3}">
       <formula1>$C$11:$C$110</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Expected workload" prompt="Enter the expected workload in hours or fractions." sqref="L11:L26 L28:L31 L33:L36 L38:L41 L43:L46 L48:L110" xr:uid="{AADDA758-A288-4920-A868-A656B94EE475}">
+      <formula1>0</formula1>
+      <formula2>1024</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5318,40 +5678,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C5" s="5"/>
@@ -5370,7 +5730,7 @@
       <c r="P5" s="5"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="53" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -5393,7 +5753,7 @@
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C7" s="54"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="11" t="s">
         <v>13</v>
       </c>
@@ -5411,19 +5771,19 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="55"/>
+      <c r="J9" s="54"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="55" t="s">
+      <c r="L9" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55" t="s">
+      <c r="M9" s="54"/>
+      <c r="N9" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="55"/>
+      <c r="O9" s="54"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8673,40 +9033,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C5" s="5"/>
@@ -8725,7 +9085,7 @@
       <c r="P5" s="5"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="53" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -8748,7 +9108,7 @@
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C7" s="54"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="11" t="s">
         <v>13</v>
       </c>
@@ -8766,19 +9126,19 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="55"/>
+      <c r="J9" s="54"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="55" t="s">
+      <c r="L9" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55" t="s">
+      <c r="M9" s="54"/>
+      <c r="N9" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="55"/>
+      <c r="O9" s="54"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12026,52 +12386,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>

--- a/reports/Planning-Template.xlsx
+++ b/reports/Planning-Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E38E1EB-A20A-4827-8414-E978EE420200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13595EE-9ABD-40EA-872E-B0FA222B8C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{683E09B8-1D94-4905-B116-9D998A46AAA3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{683E09B8-1D94-4905-B116-9D998A46AAA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Copyright" sheetId="10" r:id="rId1"/>
@@ -834,6 +834,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -852,7 +853,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1488,124 +1488,124 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="55" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="56" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1623,22 +1623,22 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="55" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1649,42 +1649,42 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="56" t="s">
+    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1695,7 +1695,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="39"/>
       <c r="C8" s="40" t="s">
         <v>4</v>
@@ -1708,33 +1708,33 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="49"/>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="50"/>
       <c r="C11" s="48" t="s">
         <v>7</v>
@@ -1747,18 +1747,18 @@
       <c r="I11" s="48"/>
       <c r="J11" s="48"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1777,53 +1777,53 @@
   <dimension ref="B2:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O25" sqref="O25"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="15" width="18.88671875" customWidth="1"/>
-    <col min="16" max="16" width="64.5546875" customWidth="1"/>
+    <col min="3" max="15" width="18.85546875" customWidth="1"/>
+    <col min="16" max="16" width="64.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C2" s="55" t="s">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C2" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-    </row>
-    <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="56" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+    </row>
+    <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1839,8 +1839,8 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C6" s="53" t="s">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C6" s="54" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -1862,18 +1862,18 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C7" s="53"/>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C7" s="54"/>
       <c r="D7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="36">
         <f>SUM(O11:O110)</f>
-        <v>361.25</v>
+        <v>441.25</v>
       </c>
       <c r="J7" s="37"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1881,22 +1881,22 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="54" t="s">
+      <c r="I9" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="54"/>
+      <c r="J9" s="55"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="54" t="s">
+      <c r="L9" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54" t="s">
+      <c r="M9" s="55"/>
+      <c r="N9" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="54"/>
+      <c r="O9" s="55"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="41">
         <v>1</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="41">
         <v>2</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="41">
         <v>3</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="41">
         <v>4</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="41">
         <v>5</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="41">
         <v>6</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="41">
         <v>7</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="41">
         <v>8</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="41">
         <v>9</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="41">
         <v>10</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="41">
         <v>11</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="41">
         <v>12</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="41">
         <v>13</v>
       </c>
@@ -2534,29 +2534,35 @@
         <v>49</v>
       </c>
       <c r="H23" s="43"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
+      <c r="I23" s="46">
+        <v>46064.529861111114</v>
+      </c>
+      <c r="J23" s="46">
+        <v>46064.73541666667</v>
+      </c>
       <c r="K23" s="45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Completed</v>
       </c>
       <c r="L23" s="47">
         <v>2</v>
       </c>
-      <c r="M23" s="47"/>
+      <c r="M23" s="47">
+        <v>2</v>
+      </c>
       <c r="N23" s="45">
         <f>IF(ISBLANK(L23), "", L23*VLOOKUP($F23,Internal!$B$26:$C$32,2,FALSE))</f>
         <v>50</v>
       </c>
-      <c r="O23" s="45" t="str">
+      <c r="O23" s="45">
         <f>IF(ISBLANK(M23), "", M23*VLOOKUP($F23,Internal!$B$26:$C$32,2,FALSE))</f>
-        <v/>
+        <v>50</v>
       </c>
       <c r="P23" s="44" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="41">
         <v>14</v>
       </c>
@@ -2599,7 +2605,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="41">
         <v>15</v>
       </c>
@@ -2620,29 +2626,35 @@
         <v>90</v>
       </c>
       <c r="H25" s="43"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
+      <c r="I25" s="46">
+        <v>46062.736111111109</v>
+      </c>
+      <c r="J25" s="46">
+        <v>46063.523611111108</v>
+      </c>
       <c r="K25" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>Completed</v>
       </c>
       <c r="L25" s="47">
         <v>1</v>
       </c>
-      <c r="M25" s="47"/>
+      <c r="M25" s="47">
+        <v>1</v>
+      </c>
       <c r="N25" s="45">
         <f>IF(ISBLANK(L25), "", L25*VLOOKUP($F25,Internal!$B$26:$C$32,2,FALSE))</f>
         <v>30</v>
       </c>
-      <c r="O25" s="45" t="str">
+      <c r="O25" s="45">
         <f>IF(ISBLANK(M25), "", M25*VLOOKUP($F25,Internal!$B$26:$C$32,2,FALSE))</f>
-        <v/>
+        <v>30</v>
       </c>
       <c r="P25" s="44" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="41">
         <v>16</v>
       </c>
@@ -2685,7 +2697,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="41">
         <v>17</v>
       </c>
@@ -2712,7 +2724,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="L27" s="59">
+      <c r="L27" s="53">
         <v>5</v>
       </c>
       <c r="M27" s="47"/>
@@ -2728,7 +2740,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="41">
         <v>18</v>
       </c>
@@ -2771,7 +2783,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="41">
         <v>19</v>
       </c>
@@ -2814,7 +2826,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="41">
         <v>20</v>
       </c>
@@ -2857,7 +2869,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="41">
         <v>21</v>
       </c>
@@ -2900,7 +2912,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="41">
         <v>22</v>
       </c>
@@ -2927,7 +2939,7 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="L32" s="59">
+      <c r="L32" s="53">
         <v>8</v>
       </c>
       <c r="M32" s="47"/>
@@ -2943,7 +2955,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="41">
         <v>23</v>
       </c>
@@ -2986,7 +2998,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="41">
         <v>24</v>
       </c>
@@ -3029,7 +3041,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="41">
         <v>25</v>
       </c>
@@ -3072,7 +3084,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="41">
         <v>26</v>
       </c>
@@ -3115,7 +3127,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="41">
         <v>27</v>
       </c>
@@ -3142,7 +3154,7 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="L37" s="59">
+      <c r="L37" s="53">
         <v>8</v>
       </c>
       <c r="M37" s="47"/>
@@ -3158,7 +3170,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="41">
         <v>28</v>
       </c>
@@ -3201,7 +3213,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="41">
         <v>29</v>
       </c>
@@ -3244,7 +3256,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="41">
         <v>30</v>
       </c>
@@ -3287,7 +3299,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="41">
         <v>31</v>
       </c>
@@ -3330,7 +3342,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="41">
         <v>32</v>
       </c>
@@ -3357,7 +3369,7 @@
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="L42" s="59">
+      <c r="L42" s="53">
         <v>2</v>
       </c>
       <c r="M42" s="47"/>
@@ -3373,7 +3385,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="41">
         <v>33</v>
       </c>
@@ -3416,7 +3428,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="41">
         <v>34</v>
       </c>
@@ -3459,7 +3471,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="41">
         <v>35</v>
       </c>
@@ -3502,7 +3514,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="41">
         <v>36</v>
       </c>
@@ -3545,7 +3557,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="41">
         <v>37</v>
       </c>
@@ -3572,7 +3584,7 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="L47" s="59">
+      <c r="L47" s="53">
         <v>1</v>
       </c>
       <c r="M47" s="47"/>
@@ -3588,7 +3600,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="41">
         <v>38</v>
       </c>
@@ -3631,7 +3643,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="41">
         <v>39</v>
       </c>
@@ -3674,7 +3686,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="41">
         <v>40</v>
       </c>
@@ -3717,7 +3729,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="41">
         <v>41</v>
       </c>
@@ -3748,7 +3760,7 @@
       </c>
       <c r="P51" s="44"/>
     </row>
-    <row r="52" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="41">
         <v>42</v>
       </c>
@@ -3779,7 +3791,7 @@
       </c>
       <c r="P52" s="44"/>
     </row>
-    <row r="53" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="41">
         <v>43</v>
       </c>
@@ -3810,7 +3822,7 @@
       </c>
       <c r="P53" s="44"/>
     </row>
-    <row r="54" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="41">
         <v>44</v>
       </c>
@@ -3841,7 +3853,7 @@
       </c>
       <c r="P54" s="44"/>
     </row>
-    <row r="55" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="41">
         <v>45</v>
       </c>
@@ -3872,7 +3884,7 @@
       </c>
       <c r="P55" s="44"/>
     </row>
-    <row r="56" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="41">
         <v>46</v>
       </c>
@@ -3903,7 +3915,7 @@
       </c>
       <c r="P56" s="44"/>
     </row>
-    <row r="57" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="41">
         <v>47</v>
       </c>
@@ -3934,7 +3946,7 @@
       </c>
       <c r="P57" s="44"/>
     </row>
-    <row r="58" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="41">
         <v>48</v>
       </c>
@@ -3965,7 +3977,7 @@
       </c>
       <c r="P58" s="44"/>
     </row>
-    <row r="59" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="41">
         <v>49</v>
       </c>
@@ -3996,7 +4008,7 @@
       </c>
       <c r="P59" s="44"/>
     </row>
-    <row r="60" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="41">
         <v>50</v>
       </c>
@@ -4027,7 +4039,7 @@
       </c>
       <c r="P60" s="44"/>
     </row>
-    <row r="61" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="41">
         <v>51</v>
       </c>
@@ -4058,7 +4070,7 @@
       </c>
       <c r="P61" s="44"/>
     </row>
-    <row r="62" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="41">
         <v>52</v>
       </c>
@@ -4089,7 +4101,7 @@
       </c>
       <c r="P62" s="44"/>
     </row>
-    <row r="63" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="41">
         <v>53</v>
       </c>
@@ -4120,7 +4132,7 @@
       </c>
       <c r="P63" s="44"/>
     </row>
-    <row r="64" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="41">
         <v>54</v>
       </c>
@@ -4151,7 +4163,7 @@
       </c>
       <c r="P64" s="44"/>
     </row>
-    <row r="65" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="41">
         <v>55</v>
       </c>
@@ -4182,7 +4194,7 @@
       </c>
       <c r="P65" s="44"/>
     </row>
-    <row r="66" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="41">
         <v>56</v>
       </c>
@@ -4213,7 +4225,7 @@
       </c>
       <c r="P66" s="44"/>
     </row>
-    <row r="67" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="41">
         <v>57</v>
       </c>
@@ -4244,7 +4256,7 @@
       </c>
       <c r="P67" s="44"/>
     </row>
-    <row r="68" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="41">
         <v>58</v>
       </c>
@@ -4275,7 +4287,7 @@
       </c>
       <c r="P68" s="44"/>
     </row>
-    <row r="69" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="41">
         <v>59</v>
       </c>
@@ -4306,7 +4318,7 @@
       </c>
       <c r="P69" s="44"/>
     </row>
-    <row r="70" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="41">
         <v>60</v>
       </c>
@@ -4337,7 +4349,7 @@
       </c>
       <c r="P70" s="44"/>
     </row>
-    <row r="71" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="41">
         <v>61</v>
       </c>
@@ -4368,7 +4380,7 @@
       </c>
       <c r="P71" s="44"/>
     </row>
-    <row r="72" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="41">
         <v>62</v>
       </c>
@@ -4399,7 +4411,7 @@
       </c>
       <c r="P72" s="44"/>
     </row>
-    <row r="73" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="41">
         <v>63</v>
       </c>
@@ -4430,7 +4442,7 @@
       </c>
       <c r="P73" s="44"/>
     </row>
-    <row r="74" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="41">
         <v>64</v>
       </c>
@@ -4461,7 +4473,7 @@
       </c>
       <c r="P74" s="44"/>
     </row>
-    <row r="75" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="41">
         <v>65</v>
       </c>
@@ -4492,7 +4504,7 @@
       </c>
       <c r="P75" s="44"/>
     </row>
-    <row r="76" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="41">
         <v>66</v>
       </c>
@@ -4523,7 +4535,7 @@
       </c>
       <c r="P76" s="44"/>
     </row>
-    <row r="77" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="41">
         <v>67</v>
       </c>
@@ -4554,7 +4566,7 @@
       </c>
       <c r="P77" s="44"/>
     </row>
-    <row r="78" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="41">
         <v>68</v>
       </c>
@@ -4585,7 +4597,7 @@
       </c>
       <c r="P78" s="44"/>
     </row>
-    <row r="79" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="41">
         <v>69</v>
       </c>
@@ -4616,7 +4628,7 @@
       </c>
       <c r="P79" s="44"/>
     </row>
-    <row r="80" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="41">
         <v>70</v>
       </c>
@@ -4647,7 +4659,7 @@
       </c>
       <c r="P80" s="44"/>
     </row>
-    <row r="81" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="41">
         <v>71</v>
       </c>
@@ -4678,7 +4690,7 @@
       </c>
       <c r="P81" s="44"/>
     </row>
-    <row r="82" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="41">
         <v>72</v>
       </c>
@@ -4709,7 +4721,7 @@
       </c>
       <c r="P82" s="44"/>
     </row>
-    <row r="83" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="41">
         <v>73</v>
       </c>
@@ -4740,7 +4752,7 @@
       </c>
       <c r="P83" s="44"/>
     </row>
-    <row r="84" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="41">
         <v>74</v>
       </c>
@@ -4771,7 +4783,7 @@
       </c>
       <c r="P84" s="44"/>
     </row>
-    <row r="85" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="41">
         <v>75</v>
       </c>
@@ -4802,7 +4814,7 @@
       </c>
       <c r="P85" s="44"/>
     </row>
-    <row r="86" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="41">
         <v>76</v>
       </c>
@@ -4833,7 +4845,7 @@
       </c>
       <c r="P86" s="44"/>
     </row>
-    <row r="87" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="41">
         <v>77</v>
       </c>
@@ -4864,7 +4876,7 @@
       </c>
       <c r="P87" s="44"/>
     </row>
-    <row r="88" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B88" s="41">
         <v>78</v>
       </c>
@@ -4895,7 +4907,7 @@
       </c>
       <c r="P88" s="44"/>
     </row>
-    <row r="89" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="41">
         <v>79</v>
       </c>
@@ -4926,7 +4938,7 @@
       </c>
       <c r="P89" s="44"/>
     </row>
-    <row r="90" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="41">
         <v>80</v>
       </c>
@@ -4957,7 +4969,7 @@
       </c>
       <c r="P90" s="44"/>
     </row>
-    <row r="91" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="41">
         <v>81</v>
       </c>
@@ -4988,7 +5000,7 @@
       </c>
       <c r="P91" s="44"/>
     </row>
-    <row r="92" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="41">
         <v>82</v>
       </c>
@@ -5019,7 +5031,7 @@
       </c>
       <c r="P92" s="44"/>
     </row>
-    <row r="93" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="41">
         <v>83</v>
       </c>
@@ -5050,7 +5062,7 @@
       </c>
       <c r="P93" s="44"/>
     </row>
-    <row r="94" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B94" s="41">
         <v>84</v>
       </c>
@@ -5081,7 +5093,7 @@
       </c>
       <c r="P94" s="44"/>
     </row>
-    <row r="95" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="41">
         <v>85</v>
       </c>
@@ -5112,7 +5124,7 @@
       </c>
       <c r="P95" s="44"/>
     </row>
-    <row r="96" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="41">
         <v>86</v>
       </c>
@@ -5143,7 +5155,7 @@
       </c>
       <c r="P96" s="44"/>
     </row>
-    <row r="97" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B97" s="41">
         <v>87</v>
       </c>
@@ -5174,7 +5186,7 @@
       </c>
       <c r="P97" s="44"/>
     </row>
-    <row r="98" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="41">
         <v>88</v>
       </c>
@@ -5205,7 +5217,7 @@
       </c>
       <c r="P98" s="44"/>
     </row>
-    <row r="99" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="41">
         <v>89</v>
       </c>
@@ -5236,7 +5248,7 @@
       </c>
       <c r="P99" s="44"/>
     </row>
-    <row r="100" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="41">
         <v>90</v>
       </c>
@@ -5267,7 +5279,7 @@
       </c>
       <c r="P100" s="44"/>
     </row>
-    <row r="101" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="41">
         <v>91</v>
       </c>
@@ -5298,7 +5310,7 @@
       </c>
       <c r="P101" s="44"/>
     </row>
-    <row r="102" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="41">
         <v>92</v>
       </c>
@@ -5329,7 +5341,7 @@
       </c>
       <c r="P102" s="44"/>
     </row>
-    <row r="103" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="41">
         <v>93</v>
       </c>
@@ -5360,7 +5372,7 @@
       </c>
       <c r="P103" s="44"/>
     </row>
-    <row r="104" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="41">
         <v>94</v>
       </c>
@@ -5391,7 +5403,7 @@
       </c>
       <c r="P104" s="44"/>
     </row>
-    <row r="105" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="41">
         <v>95</v>
       </c>
@@ -5422,7 +5434,7 @@
       </c>
       <c r="P105" s="44"/>
     </row>
-    <row r="106" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B106" s="41">
         <v>96</v>
       </c>
@@ -5453,7 +5465,7 @@
       </c>
       <c r="P106" s="44"/>
     </row>
-    <row r="107" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="41">
         <v>97</v>
       </c>
@@ -5484,7 +5496,7 @@
       </c>
       <c r="P107" s="44"/>
     </row>
-    <row r="108" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="41">
         <v>98</v>
       </c>
@@ -5515,7 +5527,7 @@
       </c>
       <c r="P108" s="44"/>
     </row>
-    <row r="109" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B109" s="41">
         <v>99</v>
       </c>
@@ -5546,7 +5558,7 @@
       </c>
       <c r="P109" s="44"/>
     </row>
-    <row r="110" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="41">
         <v>100</v>
       </c>
@@ -5592,7 +5604,7 @@
       <formula>AND(H11&lt;&gt;"",COUNTIF($C$11:$C$110,H11)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11 J14 J16 J18 J20:J110">
+  <conditionalFormatting sqref="J11 J14 J16 J18 J20:J24 J26:J110">
     <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND(I11&lt;&gt;"",J11&lt;&gt;"", I11&gt;J11)</formula>
     </cfRule>
@@ -5645,7 +5657,7 @@
           <x14:formula2>
             <xm:f>Internal!$C$23</xm:f>
           </x14:formula2>
-          <xm:sqref>J19 J12:J13 J15 J17 I11:I110</xm:sqref>
+          <xm:sqref>J19 J12:J13 J15 J17 I11:I110 J25</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="End moment" prompt="Indicate the moment when the assignee finishes working on this task.  Use format yy/mm/dd hh:mm." xr:uid="{AA2B0FBE-439D-4BBE-9231-3859DD87C79A}">
           <x14:formula1>
@@ -5654,7 +5666,7 @@
           <x14:formula2>
             <xm:f>Internal!$C$23</xm:f>
           </x14:formula2>
-          <xm:sqref>J11 J14 J16 J18 J20:J110</xm:sqref>
+          <xm:sqref>J11 J14 J16 J18 J20:J24 J26:J110</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5671,49 +5683,49 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="15" width="18.88671875" customWidth="1"/>
-    <col min="16" max="16" width="64.5546875" customWidth="1"/>
+    <col min="3" max="15" width="18.85546875" customWidth="1"/>
+    <col min="16" max="16" width="64.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C2" s="55" t="s">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C2" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-    </row>
-    <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="56" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+    </row>
+    <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -5729,8 +5741,8 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C6" s="53" t="s">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C6" s="54" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -5752,8 +5764,8 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C7" s="53"/>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C7" s="54"/>
       <c r="D7" s="11" t="s">
         <v>13</v>
       </c>
@@ -5763,7 +5775,7 @@
       </c>
       <c r="J7" s="37"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -5771,22 +5783,22 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="54" t="s">
+      <c r="I9" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="54"/>
+      <c r="J9" s="55"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="54" t="s">
+      <c r="L9" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54" t="s">
+      <c r="M9" s="55"/>
+      <c r="N9" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="54"/>
+      <c r="O9" s="55"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
@@ -5833,7 +5845,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="41">
         <v>1</v>
       </c>
@@ -5864,7 +5876,7 @@
       </c>
       <c r="P11" s="44"/>
     </row>
-    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="41">
         <v>2</v>
       </c>
@@ -5895,7 +5907,7 @@
       </c>
       <c r="P12" s="44"/>
     </row>
-    <row r="13" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="41">
         <v>3</v>
       </c>
@@ -5926,7 +5938,7 @@
       </c>
       <c r="P13" s="44"/>
     </row>
-    <row r="14" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="41">
         <v>4</v>
       </c>
@@ -5957,7 +5969,7 @@
       </c>
       <c r="P14" s="44"/>
     </row>
-    <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="41">
         <v>5</v>
       </c>
@@ -5988,7 +6000,7 @@
       </c>
       <c r="P15" s="44"/>
     </row>
-    <row r="16" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="41">
         <v>6</v>
       </c>
@@ -6019,7 +6031,7 @@
       </c>
       <c r="P16" s="44"/>
     </row>
-    <row r="17" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="41">
         <v>7</v>
       </c>
@@ -6050,7 +6062,7 @@
       </c>
       <c r="P17" s="44"/>
     </row>
-    <row r="18" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="41">
         <v>8</v>
       </c>
@@ -6081,7 +6093,7 @@
       </c>
       <c r="P18" s="44"/>
     </row>
-    <row r="19" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="41">
         <v>9</v>
       </c>
@@ -6112,7 +6124,7 @@
       </c>
       <c r="P19" s="44"/>
     </row>
-    <row r="20" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="41">
         <v>10</v>
       </c>
@@ -6143,7 +6155,7 @@
       </c>
       <c r="P20" s="44"/>
     </row>
-    <row r="21" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="41">
         <v>11</v>
       </c>
@@ -6174,7 +6186,7 @@
       </c>
       <c r="P21" s="44"/>
     </row>
-    <row r="22" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="41">
         <v>12</v>
       </c>
@@ -6205,7 +6217,7 @@
       </c>
       <c r="P22" s="44"/>
     </row>
-    <row r="23" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="41">
         <v>13</v>
       </c>
@@ -6236,7 +6248,7 @@
       </c>
       <c r="P23" s="44"/>
     </row>
-    <row r="24" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="41">
         <v>14</v>
       </c>
@@ -6267,7 +6279,7 @@
       </c>
       <c r="P24" s="44"/>
     </row>
-    <row r="25" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="41">
         <v>15</v>
       </c>
@@ -6298,7 +6310,7 @@
       </c>
       <c r="P25" s="44"/>
     </row>
-    <row r="26" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="41">
         <v>16</v>
       </c>
@@ -6329,7 +6341,7 @@
       </c>
       <c r="P26" s="44"/>
     </row>
-    <row r="27" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="41">
         <v>17</v>
       </c>
@@ -6360,7 +6372,7 @@
       </c>
       <c r="P27" s="44"/>
     </row>
-    <row r="28" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="41">
         <v>18</v>
       </c>
@@ -6391,7 +6403,7 @@
       </c>
       <c r="P28" s="44"/>
     </row>
-    <row r="29" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="41">
         <v>19</v>
       </c>
@@ -6422,7 +6434,7 @@
       </c>
       <c r="P29" s="44"/>
     </row>
-    <row r="30" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="41">
         <v>20</v>
       </c>
@@ -6453,7 +6465,7 @@
       </c>
       <c r="P30" s="44"/>
     </row>
-    <row r="31" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="41">
         <v>21</v>
       </c>
@@ -6484,7 +6496,7 @@
       </c>
       <c r="P31" s="44"/>
     </row>
-    <row r="32" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="41">
         <v>22</v>
       </c>
@@ -6515,7 +6527,7 @@
       </c>
       <c r="P32" s="44"/>
     </row>
-    <row r="33" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="41">
         <v>23</v>
       </c>
@@ -6546,7 +6558,7 @@
       </c>
       <c r="P33" s="44"/>
     </row>
-    <row r="34" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="41">
         <v>24</v>
       </c>
@@ -6577,7 +6589,7 @@
       </c>
       <c r="P34" s="44"/>
     </row>
-    <row r="35" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="41">
         <v>25</v>
       </c>
@@ -6608,7 +6620,7 @@
       </c>
       <c r="P35" s="44"/>
     </row>
-    <row r="36" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="41">
         <v>26</v>
       </c>
@@ -6639,7 +6651,7 @@
       </c>
       <c r="P36" s="44"/>
     </row>
-    <row r="37" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="41">
         <v>27</v>
       </c>
@@ -6670,7 +6682,7 @@
       </c>
       <c r="P37" s="44"/>
     </row>
-    <row r="38" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="41">
         <v>28</v>
       </c>
@@ -6701,7 +6713,7 @@
       </c>
       <c r="P38" s="44"/>
     </row>
-    <row r="39" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="41">
         <v>29</v>
       </c>
@@ -6732,7 +6744,7 @@
       </c>
       <c r="P39" s="44"/>
     </row>
-    <row r="40" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="41">
         <v>30</v>
       </c>
@@ -6763,7 +6775,7 @@
       </c>
       <c r="P40" s="44"/>
     </row>
-    <row r="41" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="41">
         <v>31</v>
       </c>
@@ -6794,7 +6806,7 @@
       </c>
       <c r="P41" s="44"/>
     </row>
-    <row r="42" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="41">
         <v>32</v>
       </c>
@@ -6825,7 +6837,7 @@
       </c>
       <c r="P42" s="44"/>
     </row>
-    <row r="43" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="41">
         <v>33</v>
       </c>
@@ -6856,7 +6868,7 @@
       </c>
       <c r="P43" s="44"/>
     </row>
-    <row r="44" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="41">
         <v>34</v>
       </c>
@@ -6887,7 +6899,7 @@
       </c>
       <c r="P44" s="44"/>
     </row>
-    <row r="45" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="41">
         <v>35</v>
       </c>
@@ -6918,7 +6930,7 @@
       </c>
       <c r="P45" s="44"/>
     </row>
-    <row r="46" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="41">
         <v>36</v>
       </c>
@@ -6949,7 +6961,7 @@
       </c>
       <c r="P46" s="44"/>
     </row>
-    <row r="47" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="41">
         <v>37</v>
       </c>
@@ -6980,7 +6992,7 @@
       </c>
       <c r="P47" s="44"/>
     </row>
-    <row r="48" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="41">
         <v>38</v>
       </c>
@@ -7011,7 +7023,7 @@
       </c>
       <c r="P48" s="44"/>
     </row>
-    <row r="49" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="41">
         <v>39</v>
       </c>
@@ -7042,7 +7054,7 @@
       </c>
       <c r="P49" s="44"/>
     </row>
-    <row r="50" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="41">
         <v>40</v>
       </c>
@@ -7073,7 +7085,7 @@
       </c>
       <c r="P50" s="44"/>
     </row>
-    <row r="51" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="41">
         <v>41</v>
       </c>
@@ -7104,7 +7116,7 @@
       </c>
       <c r="P51" s="44"/>
     </row>
-    <row r="52" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="41">
         <v>42</v>
       </c>
@@ -7135,7 +7147,7 @@
       </c>
       <c r="P52" s="44"/>
     </row>
-    <row r="53" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="41">
         <v>43</v>
       </c>
@@ -7166,7 +7178,7 @@
       </c>
       <c r="P53" s="44"/>
     </row>
-    <row r="54" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="41">
         <v>44</v>
       </c>
@@ -7197,7 +7209,7 @@
       </c>
       <c r="P54" s="44"/>
     </row>
-    <row r="55" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="41">
         <v>45</v>
       </c>
@@ -7228,7 +7240,7 @@
       </c>
       <c r="P55" s="44"/>
     </row>
-    <row r="56" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="41">
         <v>46</v>
       </c>
@@ -7259,7 +7271,7 @@
       </c>
       <c r="P56" s="44"/>
     </row>
-    <row r="57" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="41">
         <v>47</v>
       </c>
@@ -7290,7 +7302,7 @@
       </c>
       <c r="P57" s="44"/>
     </row>
-    <row r="58" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="41">
         <v>48</v>
       </c>
@@ -7321,7 +7333,7 @@
       </c>
       <c r="P58" s="44"/>
     </row>
-    <row r="59" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="41">
         <v>49</v>
       </c>
@@ -7352,7 +7364,7 @@
       </c>
       <c r="P59" s="44"/>
     </row>
-    <row r="60" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="41">
         <v>50</v>
       </c>
@@ -7383,7 +7395,7 @@
       </c>
       <c r="P60" s="44"/>
     </row>
-    <row r="61" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="41">
         <v>51</v>
       </c>
@@ -7414,7 +7426,7 @@
       </c>
       <c r="P61" s="44"/>
     </row>
-    <row r="62" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="41">
         <v>52</v>
       </c>
@@ -7445,7 +7457,7 @@
       </c>
       <c r="P62" s="44"/>
     </row>
-    <row r="63" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="41">
         <v>53</v>
       </c>
@@ -7476,7 +7488,7 @@
       </c>
       <c r="P63" s="44"/>
     </row>
-    <row r="64" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="41">
         <v>54</v>
       </c>
@@ -7507,7 +7519,7 @@
       </c>
       <c r="P64" s="44"/>
     </row>
-    <row r="65" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="41">
         <v>55</v>
       </c>
@@ -7538,7 +7550,7 @@
       </c>
       <c r="P65" s="44"/>
     </row>
-    <row r="66" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="41">
         <v>56</v>
       </c>
@@ -7569,7 +7581,7 @@
       </c>
       <c r="P66" s="44"/>
     </row>
-    <row r="67" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="41">
         <v>57</v>
       </c>
@@ -7600,7 +7612,7 @@
       </c>
       <c r="P67" s="44"/>
     </row>
-    <row r="68" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="41">
         <v>58</v>
       </c>
@@ -7631,7 +7643,7 @@
       </c>
       <c r="P68" s="44"/>
     </row>
-    <row r="69" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="41">
         <v>59</v>
       </c>
@@ -7662,7 +7674,7 @@
       </c>
       <c r="P69" s="44"/>
     </row>
-    <row r="70" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="41">
         <v>60</v>
       </c>
@@ -7693,7 +7705,7 @@
       </c>
       <c r="P70" s="44"/>
     </row>
-    <row r="71" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="41">
         <v>61</v>
       </c>
@@ -7724,7 +7736,7 @@
       </c>
       <c r="P71" s="44"/>
     </row>
-    <row r="72" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="41">
         <v>62</v>
       </c>
@@ -7755,7 +7767,7 @@
       </c>
       <c r="P72" s="44"/>
     </row>
-    <row r="73" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="41">
         <v>63</v>
       </c>
@@ -7786,7 +7798,7 @@
       </c>
       <c r="P73" s="44"/>
     </row>
-    <row r="74" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="41">
         <v>64</v>
       </c>
@@ -7817,7 +7829,7 @@
       </c>
       <c r="P74" s="44"/>
     </row>
-    <row r="75" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="41">
         <v>65</v>
       </c>
@@ -7848,7 +7860,7 @@
       </c>
       <c r="P75" s="44"/>
     </row>
-    <row r="76" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="41">
         <v>66</v>
       </c>
@@ -7879,7 +7891,7 @@
       </c>
       <c r="P76" s="44"/>
     </row>
-    <row r="77" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="41">
         <v>67</v>
       </c>
@@ -7910,7 +7922,7 @@
       </c>
       <c r="P77" s="44"/>
     </row>
-    <row r="78" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="41">
         <v>68</v>
       </c>
@@ -7941,7 +7953,7 @@
       </c>
       <c r="P78" s="44"/>
     </row>
-    <row r="79" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="41">
         <v>69</v>
       </c>
@@ -7972,7 +7984,7 @@
       </c>
       <c r="P79" s="44"/>
     </row>
-    <row r="80" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="41">
         <v>70</v>
       </c>
@@ -8003,7 +8015,7 @@
       </c>
       <c r="P80" s="44"/>
     </row>
-    <row r="81" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="41">
         <v>71</v>
       </c>
@@ -8034,7 +8046,7 @@
       </c>
       <c r="P81" s="44"/>
     </row>
-    <row r="82" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="41">
         <v>72</v>
       </c>
@@ -8065,7 +8077,7 @@
       </c>
       <c r="P82" s="44"/>
     </row>
-    <row r="83" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="41">
         <v>73</v>
       </c>
@@ -8096,7 +8108,7 @@
       </c>
       <c r="P83" s="44"/>
     </row>
-    <row r="84" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="41">
         <v>74</v>
       </c>
@@ -8127,7 +8139,7 @@
       </c>
       <c r="P84" s="44"/>
     </row>
-    <row r="85" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="41">
         <v>75</v>
       </c>
@@ -8158,7 +8170,7 @@
       </c>
       <c r="P85" s="44"/>
     </row>
-    <row r="86" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="41">
         <v>76</v>
       </c>
@@ -8189,7 +8201,7 @@
       </c>
       <c r="P86" s="44"/>
     </row>
-    <row r="87" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="41">
         <v>77</v>
       </c>
@@ -8220,7 +8232,7 @@
       </c>
       <c r="P87" s="44"/>
     </row>
-    <row r="88" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B88" s="41">
         <v>78</v>
       </c>
@@ -8251,7 +8263,7 @@
       </c>
       <c r="P88" s="44"/>
     </row>
-    <row r="89" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="41">
         <v>79</v>
       </c>
@@ -8282,7 +8294,7 @@
       </c>
       <c r="P89" s="44"/>
     </row>
-    <row r="90" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="41">
         <v>80</v>
       </c>
@@ -8313,7 +8325,7 @@
       </c>
       <c r="P90" s="44"/>
     </row>
-    <row r="91" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="41">
         <v>81</v>
       </c>
@@ -8344,7 +8356,7 @@
       </c>
       <c r="P91" s="44"/>
     </row>
-    <row r="92" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="41">
         <v>82</v>
       </c>
@@ -8375,7 +8387,7 @@
       </c>
       <c r="P92" s="44"/>
     </row>
-    <row r="93" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="41">
         <v>83</v>
       </c>
@@ -8406,7 +8418,7 @@
       </c>
       <c r="P93" s="44"/>
     </row>
-    <row r="94" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B94" s="41">
         <v>84</v>
       </c>
@@ -8437,7 +8449,7 @@
       </c>
       <c r="P94" s="44"/>
     </row>
-    <row r="95" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="41">
         <v>85</v>
       </c>
@@ -8468,7 +8480,7 @@
       </c>
       <c r="P95" s="44"/>
     </row>
-    <row r="96" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="41">
         <v>86</v>
       </c>
@@ -8499,7 +8511,7 @@
       </c>
       <c r="P96" s="44"/>
     </row>
-    <row r="97" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B97" s="41">
         <v>87</v>
       </c>
@@ -8530,7 +8542,7 @@
       </c>
       <c r="P97" s="44"/>
     </row>
-    <row r="98" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="41">
         <v>88</v>
       </c>
@@ -8561,7 +8573,7 @@
       </c>
       <c r="P98" s="44"/>
     </row>
-    <row r="99" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="41">
         <v>89</v>
       </c>
@@ -8592,7 +8604,7 @@
       </c>
       <c r="P99" s="44"/>
     </row>
-    <row r="100" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="41">
         <v>90</v>
       </c>
@@ -8623,7 +8635,7 @@
       </c>
       <c r="P100" s="44"/>
     </row>
-    <row r="101" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="41">
         <v>91</v>
       </c>
@@ -8654,7 +8666,7 @@
       </c>
       <c r="P101" s="44"/>
     </row>
-    <row r="102" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="41">
         <v>92</v>
       </c>
@@ -8685,7 +8697,7 @@
       </c>
       <c r="P102" s="44"/>
     </row>
-    <row r="103" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="41">
         <v>93</v>
       </c>
@@ -8716,7 +8728,7 @@
       </c>
       <c r="P103" s="44"/>
     </row>
-    <row r="104" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="41">
         <v>94</v>
       </c>
@@ -8747,7 +8759,7 @@
       </c>
       <c r="P104" s="44"/>
     </row>
-    <row r="105" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="41">
         <v>95</v>
       </c>
@@ -8778,7 +8790,7 @@
       </c>
       <c r="P105" s="44"/>
     </row>
-    <row r="106" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B106" s="41">
         <v>96</v>
       </c>
@@ -8809,7 +8821,7 @@
       </c>
       <c r="P106" s="44"/>
     </row>
-    <row r="107" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="41">
         <v>97</v>
       </c>
@@ -8840,7 +8852,7 @@
       </c>
       <c r="P107" s="44"/>
     </row>
-    <row r="108" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="41">
         <v>98</v>
       </c>
@@ -8871,7 +8883,7 @@
       </c>
       <c r="P108" s="44"/>
     </row>
-    <row r="109" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B109" s="41">
         <v>99</v>
       </c>
@@ -8902,7 +8914,7 @@
       </c>
       <c r="P109" s="44"/>
     </row>
-    <row r="110" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="41">
         <v>100</v>
       </c>
@@ -9026,49 +9038,49 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="15" width="18.88671875" customWidth="1"/>
-    <col min="16" max="16" width="64.5546875" customWidth="1"/>
+    <col min="3" max="15" width="18.85546875" customWidth="1"/>
+    <col min="16" max="16" width="64.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C2" s="55" t="s">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C2" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-    </row>
-    <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="56" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+    </row>
+    <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -9084,8 +9096,8 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C6" s="53" t="s">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C6" s="54" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -9107,8 +9119,8 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C7" s="53"/>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C7" s="54"/>
       <c r="D7" s="11" t="s">
         <v>13</v>
       </c>
@@ -9118,7 +9130,7 @@
       </c>
       <c r="J7" s="37"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -9126,22 +9138,22 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="54" t="s">
+      <c r="I9" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="54"/>
+      <c r="J9" s="55"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="54" t="s">
+      <c r="L9" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54" t="s">
+      <c r="M9" s="55"/>
+      <c r="N9" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="54"/>
+      <c r="O9" s="55"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
@@ -9188,7 +9200,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="41">
         <v>1</v>
       </c>
@@ -9219,7 +9231,7 @@
       </c>
       <c r="P11" s="44"/>
     </row>
-    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="41">
         <v>2</v>
       </c>
@@ -9250,7 +9262,7 @@
       </c>
       <c r="P12" s="44"/>
     </row>
-    <row r="13" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="41">
         <v>3</v>
       </c>
@@ -9281,7 +9293,7 @@
       </c>
       <c r="P13" s="44"/>
     </row>
-    <row r="14" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="41">
         <v>4</v>
       </c>
@@ -9312,7 +9324,7 @@
       </c>
       <c r="P14" s="44"/>
     </row>
-    <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="41">
         <v>5</v>
       </c>
@@ -9343,7 +9355,7 @@
       </c>
       <c r="P15" s="44"/>
     </row>
-    <row r="16" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="41">
         <v>6</v>
       </c>
@@ -9374,7 +9386,7 @@
       </c>
       <c r="P16" s="44"/>
     </row>
-    <row r="17" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="41">
         <v>7</v>
       </c>
@@ -9405,7 +9417,7 @@
       </c>
       <c r="P17" s="44"/>
     </row>
-    <row r="18" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="41">
         <v>8</v>
       </c>
@@ -9436,7 +9448,7 @@
       </c>
       <c r="P18" s="44"/>
     </row>
-    <row r="19" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="41">
         <v>9</v>
       </c>
@@ -9467,7 +9479,7 @@
       </c>
       <c r="P19" s="44"/>
     </row>
-    <row r="20" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="41">
         <v>10</v>
       </c>
@@ -9498,7 +9510,7 @@
       </c>
       <c r="P20" s="44"/>
     </row>
-    <row r="21" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="41">
         <v>11</v>
       </c>
@@ -9529,7 +9541,7 @@
       </c>
       <c r="P21" s="44"/>
     </row>
-    <row r="22" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="41">
         <v>12</v>
       </c>
@@ -9560,7 +9572,7 @@
       </c>
       <c r="P22" s="44"/>
     </row>
-    <row r="23" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="41">
         <v>13</v>
       </c>
@@ -9591,7 +9603,7 @@
       </c>
       <c r="P23" s="44"/>
     </row>
-    <row r="24" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="41">
         <v>14</v>
       </c>
@@ -9622,7 +9634,7 @@
       </c>
       <c r="P24" s="44"/>
     </row>
-    <row r="25" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="41">
         <v>15</v>
       </c>
@@ -9653,7 +9665,7 @@
       </c>
       <c r="P25" s="44"/>
     </row>
-    <row r="26" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="41">
         <v>16</v>
       </c>
@@ -9684,7 +9696,7 @@
       </c>
       <c r="P26" s="44"/>
     </row>
-    <row r="27" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="41">
         <v>17</v>
       </c>
@@ -9715,7 +9727,7 @@
       </c>
       <c r="P27" s="44"/>
     </row>
-    <row r="28" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="41">
         <v>18</v>
       </c>
@@ -9746,7 +9758,7 @@
       </c>
       <c r="P28" s="44"/>
     </row>
-    <row r="29" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="41">
         <v>19</v>
       </c>
@@ -9777,7 +9789,7 @@
       </c>
       <c r="P29" s="44"/>
     </row>
-    <row r="30" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="41">
         <v>20</v>
       </c>
@@ -9808,7 +9820,7 @@
       </c>
       <c r="P30" s="44"/>
     </row>
-    <row r="31" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="41">
         <v>21</v>
       </c>
@@ -9839,7 +9851,7 @@
       </c>
       <c r="P31" s="44"/>
     </row>
-    <row r="32" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="41">
         <v>22</v>
       </c>
@@ -9870,7 +9882,7 @@
       </c>
       <c r="P32" s="44"/>
     </row>
-    <row r="33" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="41">
         <v>23</v>
       </c>
@@ -9901,7 +9913,7 @@
       </c>
       <c r="P33" s="44"/>
     </row>
-    <row r="34" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="41">
         <v>24</v>
       </c>
@@ -9932,7 +9944,7 @@
       </c>
       <c r="P34" s="44"/>
     </row>
-    <row r="35" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="41">
         <v>25</v>
       </c>
@@ -9963,7 +9975,7 @@
       </c>
       <c r="P35" s="44"/>
     </row>
-    <row r="36" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="41">
         <v>26</v>
       </c>
@@ -9994,7 +10006,7 @@
       </c>
       <c r="P36" s="44"/>
     </row>
-    <row r="37" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="41">
         <v>27</v>
       </c>
@@ -10025,7 +10037,7 @@
       </c>
       <c r="P37" s="44"/>
     </row>
-    <row r="38" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="41">
         <v>28</v>
       </c>
@@ -10056,7 +10068,7 @@
       </c>
       <c r="P38" s="44"/>
     </row>
-    <row r="39" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="41">
         <v>29</v>
       </c>
@@ -10087,7 +10099,7 @@
       </c>
       <c r="P39" s="44"/>
     </row>
-    <row r="40" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="41">
         <v>30</v>
       </c>
@@ -10118,7 +10130,7 @@
       </c>
       <c r="P40" s="44"/>
     </row>
-    <row r="41" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="41">
         <v>31</v>
       </c>
@@ -10149,7 +10161,7 @@
       </c>
       <c r="P41" s="44"/>
     </row>
-    <row r="42" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="41">
         <v>32</v>
       </c>
@@ -10180,7 +10192,7 @@
       </c>
       <c r="P42" s="44"/>
     </row>
-    <row r="43" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="41">
         <v>33</v>
       </c>
@@ -10211,7 +10223,7 @@
       </c>
       <c r="P43" s="44"/>
     </row>
-    <row r="44" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="41">
         <v>34</v>
       </c>
@@ -10242,7 +10254,7 @@
       </c>
       <c r="P44" s="44"/>
     </row>
-    <row r="45" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="41">
         <v>35</v>
       </c>
@@ -10273,7 +10285,7 @@
       </c>
       <c r="P45" s="44"/>
     </row>
-    <row r="46" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="41">
         <v>36</v>
       </c>
@@ -10304,7 +10316,7 @@
       </c>
       <c r="P46" s="44"/>
     </row>
-    <row r="47" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="41">
         <v>37</v>
       </c>
@@ -10335,7 +10347,7 @@
       </c>
       <c r="P47" s="44"/>
     </row>
-    <row r="48" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="41">
         <v>38</v>
       </c>
@@ -10366,7 +10378,7 @@
       </c>
       <c r="P48" s="44"/>
     </row>
-    <row r="49" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="41">
         <v>39</v>
       </c>
@@ -10397,7 +10409,7 @@
       </c>
       <c r="P49" s="44"/>
     </row>
-    <row r="50" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="41">
         <v>40</v>
       </c>
@@ -10428,7 +10440,7 @@
       </c>
       <c r="P50" s="44"/>
     </row>
-    <row r="51" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="41">
         <v>41</v>
       </c>
@@ -10459,7 +10471,7 @@
       </c>
       <c r="P51" s="44"/>
     </row>
-    <row r="52" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="41">
         <v>42</v>
       </c>
@@ -10490,7 +10502,7 @@
       </c>
       <c r="P52" s="44"/>
     </row>
-    <row r="53" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="41">
         <v>43</v>
       </c>
@@ -10521,7 +10533,7 @@
       </c>
       <c r="P53" s="44"/>
     </row>
-    <row r="54" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="41">
         <v>44</v>
       </c>
@@ -10552,7 +10564,7 @@
       </c>
       <c r="P54" s="44"/>
     </row>
-    <row r="55" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="41">
         <v>45</v>
       </c>
@@ -10583,7 +10595,7 @@
       </c>
       <c r="P55" s="44"/>
     </row>
-    <row r="56" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="41">
         <v>46</v>
       </c>
@@ -10614,7 +10626,7 @@
       </c>
       <c r="P56" s="44"/>
     </row>
-    <row r="57" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="41">
         <v>47</v>
       </c>
@@ -10645,7 +10657,7 @@
       </c>
       <c r="P57" s="44"/>
     </row>
-    <row r="58" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="41">
         <v>48</v>
       </c>
@@ -10676,7 +10688,7 @@
       </c>
       <c r="P58" s="44"/>
     </row>
-    <row r="59" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="41">
         <v>49</v>
       </c>
@@ -10707,7 +10719,7 @@
       </c>
       <c r="P59" s="44"/>
     </row>
-    <row r="60" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="41">
         <v>50</v>
       </c>
@@ -10738,7 +10750,7 @@
       </c>
       <c r="P60" s="44"/>
     </row>
-    <row r="61" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="41">
         <v>51</v>
       </c>
@@ -10769,7 +10781,7 @@
       </c>
       <c r="P61" s="44"/>
     </row>
-    <row r="62" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="41">
         <v>52</v>
       </c>
@@ -10800,7 +10812,7 @@
       </c>
       <c r="P62" s="44"/>
     </row>
-    <row r="63" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="41">
         <v>53</v>
       </c>
@@ -10831,7 +10843,7 @@
       </c>
       <c r="P63" s="44"/>
     </row>
-    <row r="64" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="41">
         <v>54</v>
       </c>
@@ -10862,7 +10874,7 @@
       </c>
       <c r="P64" s="44"/>
     </row>
-    <row r="65" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="41">
         <v>55</v>
       </c>
@@ -10893,7 +10905,7 @@
       </c>
       <c r="P65" s="44"/>
     </row>
-    <row r="66" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="41">
         <v>56</v>
       </c>
@@ -10924,7 +10936,7 @@
       </c>
       <c r="P66" s="44"/>
     </row>
-    <row r="67" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="41">
         <v>57</v>
       </c>
@@ -10955,7 +10967,7 @@
       </c>
       <c r="P67" s="44"/>
     </row>
-    <row r="68" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="41">
         <v>58</v>
       </c>
@@ -10986,7 +10998,7 @@
       </c>
       <c r="P68" s="44"/>
     </row>
-    <row r="69" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="41">
         <v>59</v>
       </c>
@@ -11017,7 +11029,7 @@
       </c>
       <c r="P69" s="44"/>
     </row>
-    <row r="70" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="41">
         <v>60</v>
       </c>
@@ -11048,7 +11060,7 @@
       </c>
       <c r="P70" s="44"/>
     </row>
-    <row r="71" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="41">
         <v>61</v>
       </c>
@@ -11079,7 +11091,7 @@
       </c>
       <c r="P71" s="44"/>
     </row>
-    <row r="72" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="41">
         <v>62</v>
       </c>
@@ -11110,7 +11122,7 @@
       </c>
       <c r="P72" s="44"/>
     </row>
-    <row r="73" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="41">
         <v>63</v>
       </c>
@@ -11141,7 +11153,7 @@
       </c>
       <c r="P73" s="44"/>
     </row>
-    <row r="74" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="41">
         <v>64</v>
       </c>
@@ -11172,7 +11184,7 @@
       </c>
       <c r="P74" s="44"/>
     </row>
-    <row r="75" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="41">
         <v>65</v>
       </c>
@@ -11203,7 +11215,7 @@
       </c>
       <c r="P75" s="44"/>
     </row>
-    <row r="76" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="41">
         <v>66</v>
       </c>
@@ -11234,7 +11246,7 @@
       </c>
       <c r="P76" s="44"/>
     </row>
-    <row r="77" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="41">
         <v>67</v>
       </c>
@@ -11265,7 +11277,7 @@
       </c>
       <c r="P77" s="44"/>
     </row>
-    <row r="78" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="41">
         <v>68</v>
       </c>
@@ -11296,7 +11308,7 @@
       </c>
       <c r="P78" s="44"/>
     </row>
-    <row r="79" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="41">
         <v>69</v>
       </c>
@@ -11327,7 +11339,7 @@
       </c>
       <c r="P79" s="44"/>
     </row>
-    <row r="80" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="41">
         <v>70</v>
       </c>
@@ -11358,7 +11370,7 @@
       </c>
       <c r="P80" s="44"/>
     </row>
-    <row r="81" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="41">
         <v>71</v>
       </c>
@@ -11389,7 +11401,7 @@
       </c>
       <c r="P81" s="44"/>
     </row>
-    <row r="82" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="41">
         <v>72</v>
       </c>
@@ -11420,7 +11432,7 @@
       </c>
       <c r="P82" s="44"/>
     </row>
-    <row r="83" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="41">
         <v>73</v>
       </c>
@@ -11451,7 +11463,7 @@
       </c>
       <c r="P83" s="44"/>
     </row>
-    <row r="84" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="41">
         <v>74</v>
       </c>
@@ -11482,7 +11494,7 @@
       </c>
       <c r="P84" s="44"/>
     </row>
-    <row r="85" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="41">
         <v>75</v>
       </c>
@@ -11513,7 +11525,7 @@
       </c>
       <c r="P85" s="44"/>
     </row>
-    <row r="86" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="41">
         <v>76</v>
       </c>
@@ -11544,7 +11556,7 @@
       </c>
       <c r="P86" s="44"/>
     </row>
-    <row r="87" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="41">
         <v>77</v>
       </c>
@@ -11575,7 +11587,7 @@
       </c>
       <c r="P87" s="44"/>
     </row>
-    <row r="88" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B88" s="41">
         <v>78</v>
       </c>
@@ -11606,7 +11618,7 @@
       </c>
       <c r="P88" s="44"/>
     </row>
-    <row r="89" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="41">
         <v>79</v>
       </c>
@@ -11637,7 +11649,7 @@
       </c>
       <c r="P89" s="44"/>
     </row>
-    <row r="90" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="41">
         <v>80</v>
       </c>
@@ -11668,7 +11680,7 @@
       </c>
       <c r="P90" s="44"/>
     </row>
-    <row r="91" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="41">
         <v>81</v>
       </c>
@@ -11699,7 +11711,7 @@
       </c>
       <c r="P91" s="44"/>
     </row>
-    <row r="92" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="41">
         <v>82</v>
       </c>
@@ -11730,7 +11742,7 @@
       </c>
       <c r="P92" s="44"/>
     </row>
-    <row r="93" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="41">
         <v>83</v>
       </c>
@@ -11761,7 +11773,7 @@
       </c>
       <c r="P93" s="44"/>
     </row>
-    <row r="94" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B94" s="41">
         <v>84</v>
       </c>
@@ -11792,7 +11804,7 @@
       </c>
       <c r="P94" s="44"/>
     </row>
-    <row r="95" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="41">
         <v>85</v>
       </c>
@@ -11823,7 +11835,7 @@
       </c>
       <c r="P95" s="44"/>
     </row>
-    <row r="96" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="41">
         <v>86</v>
       </c>
@@ -11854,7 +11866,7 @@
       </c>
       <c r="P96" s="44"/>
     </row>
-    <row r="97" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B97" s="41">
         <v>87</v>
       </c>
@@ -11885,7 +11897,7 @@
       </c>
       <c r="P97" s="44"/>
     </row>
-    <row r="98" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="41">
         <v>88</v>
       </c>
@@ -11916,7 +11928,7 @@
       </c>
       <c r="P98" s="44"/>
     </row>
-    <row r="99" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="41">
         <v>89</v>
       </c>
@@ -11947,7 +11959,7 @@
       </c>
       <c r="P99" s="44"/>
     </row>
-    <row r="100" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="41">
         <v>90</v>
       </c>
@@ -11978,7 +11990,7 @@
       </c>
       <c r="P100" s="44"/>
     </row>
-    <row r="101" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="41">
         <v>91</v>
       </c>
@@ -12009,7 +12021,7 @@
       </c>
       <c r="P101" s="44"/>
     </row>
-    <row r="102" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="41">
         <v>92</v>
       </c>
@@ -12040,7 +12052,7 @@
       </c>
       <c r="P102" s="44"/>
     </row>
-    <row r="103" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="41">
         <v>93</v>
       </c>
@@ -12071,7 +12083,7 @@
       </c>
       <c r="P103" s="44"/>
     </row>
-    <row r="104" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="41">
         <v>94</v>
       </c>
@@ -12102,7 +12114,7 @@
       </c>
       <c r="P104" s="44"/>
     </row>
-    <row r="105" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="41">
         <v>95</v>
       </c>
@@ -12133,7 +12145,7 @@
       </c>
       <c r="P105" s="44"/>
     </row>
-    <row r="106" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B106" s="41">
         <v>96</v>
       </c>
@@ -12164,7 +12176,7 @@
       </c>
       <c r="P106" s="44"/>
     </row>
-    <row r="107" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="41">
         <v>97</v>
       </c>
@@ -12195,7 +12207,7 @@
       </c>
       <c r="P107" s="44"/>
     </row>
-    <row r="108" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="41">
         <v>98</v>
       </c>
@@ -12226,7 +12238,7 @@
       </c>
       <c r="P108" s="44"/>
     </row>
-    <row r="109" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B109" s="41">
         <v>99</v>
       </c>
@@ -12257,7 +12269,7 @@
       </c>
       <c r="P109" s="44"/>
     </row>
-    <row r="110" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="41">
         <v>100</v>
       </c>
@@ -12380,60 +12392,60 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="10" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="55" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="56" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -12444,7 +12456,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
         <v>66</v>
       </c>
@@ -12457,7 +12469,7 @@
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>103</v>
       </c>
@@ -12470,7 +12482,7 @@
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>104</v>
       </c>
@@ -12483,7 +12495,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
         <v>105</v>
       </c>
@@ -12496,7 +12508,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>106</v>
       </c>
@@ -12509,7 +12521,7 @@
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>107</v>
       </c>
@@ -12522,7 +12534,7 @@
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>39</v>
       </c>
@@ -12535,7 +12547,7 @@
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -12546,7 +12558,7 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="26" t="s">
         <v>67</v>
       </c>
@@ -12559,7 +12571,7 @@
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
         <v>68</v>
       </c>
@@ -12572,7 +12584,7 @@
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
         <v>69</v>
       </c>
@@ -12585,7 +12597,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
         <v>70</v>
       </c>
@@ -12598,7 +12610,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -12609,7 +12621,7 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="26" t="s">
         <v>71</v>
       </c>
@@ -12622,7 +12634,7 @@
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="17">
         <v>45658</v>
       </c>
@@ -12635,7 +12647,7 @@
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
         <v>72</v>
       </c>
@@ -12648,7 +12660,7 @@
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -12659,7 +12671,7 @@
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="27" t="s">
         <v>73</v>
       </c>
@@ -12676,7 +12688,7 @@
       <c r="I25" s="29"/>
       <c r="J25" s="30"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="19" t="s">
         <v>76</v>
       </c>
@@ -12699,7 +12711,7 @@
       <c r="I26" s="12"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="19" t="s">
         <v>31</v>
       </c>
@@ -12726,7 +12738,7 @@
       </c>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="19" t="s">
         <v>34</v>
       </c>
@@ -12751,7 +12763,7 @@
       <c r="I28" s="12"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="19" t="s">
         <v>44</v>
       </c>
@@ -12778,7 +12790,7 @@
       </c>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="19" t="s">
         <v>52</v>
       </c>
@@ -12805,7 +12817,7 @@
       </c>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="21" t="s">
         <v>89</v>
       </c>
@@ -12834,7 +12846,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="22" t="s">
         <v>40</v>
       </c>
@@ -12851,7 +12863,7 @@
       <c r="I32" s="23"/>
       <c r="J32" s="24"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -12862,7 +12874,7 @@
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="33" t="s">
         <v>95</v>
       </c>
@@ -12877,7 +12889,7 @@
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="21" t="s">
         <v>30</v>
       </c>
@@ -12892,7 +12904,7 @@
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="21" t="s">
         <v>43</v>
       </c>
@@ -12907,7 +12919,7 @@
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="21" t="s">
         <v>99</v>
       </c>
@@ -12922,7 +12934,7 @@
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="21" t="s">
         <v>51</v>
       </c>
@@ -12937,7 +12949,7 @@
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="32" t="s">
         <v>40</v>
       </c>

--- a/reports/Planning-Template.xlsx
+++ b/reports/Planning-Template.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E38E1EB-A20A-4827-8414-E978EE420200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E2122F24-BC61-40AB-AE4D-A80C66E536E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{683E09B8-1D94-4905-B116-9D998A46AAA3}"/>
+    <workbookView visibility="hidden" xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8880" firstSheet="2" activeTab="2" xr2:uid="{683E09B8-1D94-4905-B116-9D998A46AAA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Copyright" sheetId="10" r:id="rId1"/>
@@ -32,21 +27,11 @@
     <definedName name="Student">Internal!$D$26:$G$26</definedName>
     <definedName name="Tester">Internal!$D$30:$I$30</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -834,25 +819,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1494,118 +1479,118 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1626,17 +1611,17 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
@@ -1650,39 +1635,39 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
@@ -1710,29 +1695,29 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="49"/>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="50"/>
@@ -1749,16 +1734,16 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1776,9 +1761,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CF3CD5-8D08-494F-856F-AF84E30F468A}">
   <dimension ref="B2:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1788,40 +1773,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C5" s="5"/>
@@ -1840,7 +1825,7 @@
       <c r="P5" s="5"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="58" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -1863,13 +1848,13 @@
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C7" s="53"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="36">
         <f>SUM(O11:O110)</f>
-        <v>361.25</v>
+        <v>405</v>
       </c>
       <c r="J7" s="37"/>
     </row>
@@ -1881,19 +1866,19 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="54" t="s">
+      <c r="I9" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="54"/>
+      <c r="J9" s="59"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="54" t="s">
+      <c r="L9" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54" t="s">
+      <c r="M9" s="59"/>
+      <c r="N9" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="54"/>
+      <c r="O9" s="59"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2491,23 +2476,29 @@
         <v>49</v>
       </c>
       <c r="H22" s="43"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
+      <c r="I22" s="46">
+        <v>46075.875</v>
+      </c>
+      <c r="J22" s="46">
+        <v>46075.947916666664</v>
+      </c>
       <c r="K22" s="45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Completed</v>
       </c>
       <c r="L22" s="47">
         <v>2</v>
       </c>
-      <c r="M22" s="47"/>
+      <c r="M22" s="47">
+        <v>1.75</v>
+      </c>
       <c r="N22" s="45">
         <f>IF(ISBLANK(L22), "", L22*VLOOKUP($F22,Internal!$B$26:$C$32,2,FALSE))</f>
         <v>50</v>
       </c>
-      <c r="O22" s="45" t="str">
+      <c r="O22" s="45">
         <f>IF(ISBLANK(M22), "", M22*VLOOKUP($F22,Internal!$B$26:$C$32,2,FALSE))</f>
-        <v/>
+        <v>43.75</v>
       </c>
       <c r="P22" s="44" t="s">
         <v>59</v>
@@ -2712,7 +2703,7 @@
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="L27" s="59">
+      <c r="L27" s="53">
         <v>5</v>
       </c>
       <c r="M27" s="47"/>
@@ -2927,7 +2918,7 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="L32" s="59">
+      <c r="L32" s="53">
         <v>8</v>
       </c>
       <c r="M32" s="47"/>
@@ -3142,7 +3133,7 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="L37" s="59">
+      <c r="L37" s="53">
         <v>8</v>
       </c>
       <c r="M37" s="47"/>
@@ -3357,7 +3348,7 @@
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="L42" s="59">
+      <c r="L42" s="53">
         <v>2</v>
       </c>
       <c r="M42" s="47"/>
@@ -3572,7 +3563,7 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="L47" s="59">
+      <c r="L47" s="53">
         <v>1</v>
       </c>
       <c r="M47" s="47"/>
@@ -5678,40 +5669,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C5" s="5"/>
@@ -5730,7 +5721,7 @@
       <c r="P5" s="5"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="58" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -5753,7 +5744,7 @@
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C7" s="53"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="11" t="s">
         <v>13</v>
       </c>
@@ -5771,19 +5762,19 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="54" t="s">
+      <c r="I9" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="54"/>
+      <c r="J9" s="59"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="54" t="s">
+      <c r="L9" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54" t="s">
+      <c r="M9" s="59"/>
+      <c r="N9" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="54"/>
+      <c r="O9" s="59"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9033,40 +9024,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C5" s="5"/>
@@ -9085,7 +9076,7 @@
       <c r="P5" s="5"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="58" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -9108,7 +9099,7 @@
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C7" s="53"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="11" t="s">
         <v>13</v>
       </c>
@@ -9126,19 +9117,19 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="54" t="s">
+      <c r="I9" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="54"/>
+      <c r="J9" s="59"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="54" t="s">
+      <c r="L9" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54" t="s">
+      <c r="M9" s="59"/>
+      <c r="N9" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="54"/>
+      <c r="O9" s="59"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12386,52 +12377,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>

--- a/reports/Planning-Template.xlsx
+++ b/reports/Planning-Template.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E2122F24-BC61-40AB-AE4D-A80C66E536E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA10A74-65FA-4E0D-A981-6A6FEE54FA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="hidden" xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8880" firstSheet="2" activeTab="2" xr2:uid="{683E09B8-1D94-4905-B116-9D998A46AAA3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{683E09B8-1D94-4905-B116-9D998A46AAA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Copyright" sheetId="10" r:id="rId1"/>
@@ -27,8 +32,7 @@
     <definedName name="Student">Internal!$D$26:$G$26</definedName>
     <definedName name="Tester">Internal!$D$30:$I$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1761,9 +1765,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CF3CD5-8D08-494F-856F-AF84E30F468A}">
   <dimension ref="B2:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1833,7 +1837,7 @@
       </c>
       <c r="E6" s="35">
         <f>SUM(N11:N110)</f>
-        <v>3666.25</v>
+        <v>3660</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1854,7 +1858,7 @@
       </c>
       <c r="E7" s="36">
         <f>SUM(O11:O110)</f>
-        <v>405</v>
+        <v>590</v>
       </c>
       <c r="J7" s="37"/>
     </row>
@@ -2038,10 +2042,10 @@
         <v>30</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G13" s="44" t="s">
         <v>37</v>
@@ -2065,11 +2069,11 @@
       </c>
       <c r="N13" s="45">
         <f>IF(ISBLANK(L13), "", L13*VLOOKUP($F13,Internal!$B$26:$C$32,2,FALSE))</f>
-        <v>12.5</v>
+        <v>6.25</v>
       </c>
       <c r="O13" s="45">
         <f>IF(ISBLANK(M13), "", M13*VLOOKUP($F13,Internal!$B$26:$C$32,2,FALSE))</f>
-        <v>12.5</v>
+        <v>6.25</v>
       </c>
       <c r="P13" s="44" t="s">
         <v>38</v>
@@ -2099,10 +2103,12 @@
       <c r="I14" s="46">
         <v>46069.4375</v>
       </c>
-      <c r="J14" s="46"/>
+      <c r="J14" s="46">
+        <v>46075.875</v>
+      </c>
       <c r="K14" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>Completed</v>
       </c>
       <c r="L14" s="47">
         <v>0.5</v>
@@ -2134,7 +2140,7 @@
         <v>43</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F15" s="43" t="s">
         <v>44</v>
@@ -2390,23 +2396,29 @@
         <v>49</v>
       </c>
       <c r="H20" s="43"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
+      <c r="I20" s="46">
+        <v>46069.916666666664</v>
+      </c>
+      <c r="J20" s="46">
+        <v>46069.979166666664</v>
+      </c>
       <c r="K20" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>Completed</v>
       </c>
       <c r="L20" s="47">
         <v>2</v>
       </c>
-      <c r="M20" s="47"/>
+      <c r="M20" s="47">
+        <v>1.5</v>
+      </c>
       <c r="N20" s="45">
         <f>IF(ISBLANK(L20), "", L20*VLOOKUP($F20,Internal!$B$26:$C$32,2,FALSE))</f>
         <v>50</v>
       </c>
-      <c r="O20" s="45" t="str">
+      <c r="O20" s="45">
         <f>IF(ISBLANK(M20), "", M20*VLOOKUP($F20,Internal!$B$26:$C$32,2,FALSE))</f>
-        <v/>
+        <v>37.5</v>
       </c>
       <c r="P20" s="44" t="s">
         <v>57</v>
@@ -2433,23 +2445,29 @@
         <v>49</v>
       </c>
       <c r="H21" s="43"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
+      <c r="I21" s="46">
+        <v>46074.6875</v>
+      </c>
+      <c r="J21" s="46">
+        <v>46075.9375</v>
+      </c>
       <c r="K21" s="45" t="str">
         <f t="shared" ref="K21:K24" ca="1" si="1">IF(OR(I21="",J21=""),"",IF(AND(J21&lt;&gt;"",I21&gt;=NOW()),"Planned",IF(AND(J21&lt;&gt;"",J21&lt;NOW()),"Completed","Ongoing")))</f>
-        <v/>
+        <v>Completed</v>
       </c>
       <c r="L21" s="47">
         <v>2</v>
       </c>
-      <c r="M21" s="47"/>
+      <c r="M21" s="47">
+        <v>2</v>
+      </c>
       <c r="N21" s="45">
         <f>IF(ISBLANK(L21), "", L21*VLOOKUP($F21,Internal!$B$26:$C$32,2,FALSE))</f>
         <v>50</v>
       </c>
-      <c r="O21" s="45" t="str">
+      <c r="O21" s="45">
         <f>IF(ISBLANK(M21), "", M21*VLOOKUP($F21,Internal!$B$26:$C$32,2,FALSE))</f>
-        <v/>
+        <v>50</v>
       </c>
       <c r="P21" s="44" t="s">
         <v>58</v>
@@ -2525,23 +2543,29 @@
         <v>49</v>
       </c>
       <c r="H23" s="43"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
+      <c r="I23" s="46">
+        <v>46069.736111111109</v>
+      </c>
+      <c r="J23" s="46">
+        <v>46075.5625</v>
+      </c>
       <c r="K23" s="45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Completed</v>
       </c>
       <c r="L23" s="47">
         <v>2</v>
       </c>
-      <c r="M23" s="47"/>
+      <c r="M23" s="47">
+        <v>2</v>
+      </c>
       <c r="N23" s="45">
         <f>IF(ISBLANK(L23), "", L23*VLOOKUP($F23,Internal!$B$26:$C$32,2,FALSE))</f>
         <v>50</v>
       </c>
-      <c r="O23" s="45" t="str">
+      <c r="O23" s="45">
         <f>IF(ISBLANK(M23), "", M23*VLOOKUP($F23,Internal!$B$26:$C$32,2,FALSE))</f>
-        <v/>
+        <v>50</v>
       </c>
       <c r="P23" s="44" t="s">
         <v>60</v>
@@ -2568,23 +2592,29 @@
         <v>49</v>
       </c>
       <c r="H24" s="43"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
+      <c r="I24" s="46">
+        <v>46075.885416666664</v>
+      </c>
+      <c r="J24" s="46">
+        <v>46075.979166666664</v>
+      </c>
       <c r="K24" s="45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Completed</v>
       </c>
       <c r="L24" s="47">
         <v>2</v>
       </c>
-      <c r="M24" s="47"/>
+      <c r="M24" s="47">
+        <v>2.15</v>
+      </c>
       <c r="N24" s="45">
         <f>IF(ISBLANK(L24), "", L24*VLOOKUP($F24,Internal!$B$26:$C$32,2,FALSE))</f>
         <v>50</v>
       </c>
-      <c r="O24" s="45" t="str">
+      <c r="O24" s="45">
         <f>IF(ISBLANK(M24), "", M24*VLOOKUP($F24,Internal!$B$26:$C$32,2,FALSE))</f>
-        <v/>
+        <v>53.75</v>
       </c>
       <c r="P24" s="44" t="s">
         <v>61</v>
@@ -3296,7 +3326,7 @@
         <v>44</v>
       </c>
       <c r="G41" s="44" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H41" s="43"/>
       <c r="I41" s="46"/>
@@ -3339,7 +3369,7 @@
         <v>44</v>
       </c>
       <c r="G42" s="44" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H42" s="43"/>
       <c r="I42" s="46"/>
@@ -3382,7 +3412,7 @@
         <v>44</v>
       </c>
       <c r="G43" s="44" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H43" s="43"/>
       <c r="I43" s="46"/>
@@ -3425,7 +3455,7 @@
         <v>44</v>
       </c>
       <c r="G44" s="44" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H44" s="43"/>
       <c r="I44" s="46"/>
@@ -3468,7 +3498,7 @@
         <v>44</v>
       </c>
       <c r="G45" s="44" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H45" s="43"/>
       <c r="I45" s="46"/>
@@ -3511,7 +3541,7 @@
         <v>44</v>
       </c>
       <c r="G46" s="44" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H46" s="43"/>
       <c r="I46" s="46"/>
@@ -3554,7 +3584,7 @@
         <v>44</v>
       </c>
       <c r="G47" s="44" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H47" s="43"/>
       <c r="I47" s="46"/>
@@ -3597,7 +3627,7 @@
         <v>44</v>
       </c>
       <c r="G48" s="44" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H48" s="43"/>
       <c r="I48" s="46"/>
@@ -3640,7 +3670,7 @@
         <v>44</v>
       </c>
       <c r="G49" s="44" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H49" s="43"/>
       <c r="I49" s="46"/>
@@ -3683,7 +3713,7 @@
         <v>44</v>
       </c>
       <c r="G50" s="44" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H50" s="43"/>
       <c r="I50" s="46"/>
